--- a/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06133324-35D6-4CD9-9459-009EDEB342FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20239EF4-3608-4B63-B6C6-B2658F42567D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="297">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2337,6 +2337,21 @@
     <t>その他出庫</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>必須チェック
+桁数チェック</t>
+    <rPh sb="7" eb="9">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>桁数チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3246,91 +3261,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3358,16 +3288,107 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3388,23 +3409,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5235,1779 +5250,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="181" t="s">
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="180" t="s">
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180" t="s">
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180" t="s">
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="149"/>
+      <c r="AJ3" s="149"/>
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="180"/>
-      <c r="AP3" s="180"/>
-      <c r="AQ3" s="180"/>
-      <c r="AR3" s="180"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AO3" s="149"/>
+      <c r="AP3" s="149"/>
+      <c r="AQ3" s="149"/>
+      <c r="AR3" s="149"/>
+      <c r="AS3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="180"/>
+      <c r="AT3" s="149"/>
+      <c r="AU3" s="149"/>
+      <c r="AV3" s="149"/>
+      <c r="AW3" s="149"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="180"/>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="149"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
+      <c r="AU4" s="149"/>
+      <c r="AV4" s="149"/>
+      <c r="AW4" s="149"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="172">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="153">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158">
         <v>43714</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154" t="s">
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="154" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="160" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="171" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="171"/>
-      <c r="AN5" s="160" t="s">
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="171"/>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="160"/>
-      <c r="AT6" s="160"/>
-      <c r="AU6" s="160"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="160"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
-      <c r="AU7" s="160"/>
-      <c r="AV7" s="160"/>
-      <c r="AW7" s="160"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="171"/>
-      <c r="AJ8" s="171"/>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="160"/>
-      <c r="AS8" s="160"/>
-      <c r="AT8" s="160"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="165"/>
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="171"/>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="171"/>
-      <c r="AL9" s="171"/>
-      <c r="AM9" s="171"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="171"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="171"/>
-      <c r="AM10" s="171"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="165"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="165"/>
+      <c r="AJ10" s="165"/>
+      <c r="AK10" s="165"/>
+      <c r="AL10" s="165"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="178"/>
+      <c r="AH11" s="178"/>
+      <c r="AI11" s="178"/>
+      <c r="AJ11" s="178"/>
+      <c r="AK11" s="178"/>
+      <c r="AL11" s="178"/>
+      <c r="AM11" s="179"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="148"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="147"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="149"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="173"/>
+      <c r="AL12" s="173"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="177"/>
+      <c r="AS12" s="175"/>
+      <c r="AT12" s="176"/>
+      <c r="AU12" s="176"/>
+      <c r="AV12" s="176"/>
+      <c r="AW12" s="177"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="163"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="149"/>
-      <c r="AS13" s="147"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="149"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="176"/>
+      <c r="AP13" s="176"/>
+      <c r="AQ13" s="176"/>
+      <c r="AR13" s="177"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="176"/>
+      <c r="AU13" s="176"/>
+      <c r="AV13" s="176"/>
+      <c r="AW13" s="177"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="171"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="171"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="171"/>
-      <c r="AL14" s="171"/>
-      <c r="AM14" s="171"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="160"/>
-      <c r="AP14" s="160"/>
-      <c r="AQ14" s="160"/>
-      <c r="AR14" s="160"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="148"/>
-      <c r="AU14" s="148"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="149"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="175"/>
+      <c r="AT14" s="176"/>
+      <c r="AU14" s="176"/>
+      <c r="AV14" s="176"/>
+      <c r="AW14" s="177"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="147"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="149"/>
-      <c r="AS15" s="147"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="149"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="173"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="176"/>
+      <c r="AP15" s="176"/>
+      <c r="AQ15" s="176"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="175"/>
+      <c r="AT15" s="176"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="177"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="163"/>
-      <c r="AN16" s="147"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="149"/>
-      <c r="AS16" s="147"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="149"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="173"/>
+      <c r="AL16" s="173"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="175"/>
+      <c r="AO16" s="176"/>
+      <c r="AP16" s="176"/>
+      <c r="AQ16" s="176"/>
+      <c r="AR16" s="177"/>
+      <c r="AS16" s="175"/>
+      <c r="AT16" s="176"/>
+      <c r="AU16" s="176"/>
+      <c r="AV16" s="176"/>
+      <c r="AW16" s="177"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="162"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="163"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="148"/>
-      <c r="AQ17" s="148"/>
-      <c r="AR17" s="149"/>
-      <c r="AS17" s="147"/>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="149"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="173"/>
+      <c r="AL17" s="173"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="175"/>
+      <c r="AO17" s="176"/>
+      <c r="AP17" s="176"/>
+      <c r="AQ17" s="176"/>
+      <c r="AR17" s="177"/>
+      <c r="AS17" s="175"/>
+      <c r="AT17" s="176"/>
+      <c r="AU17" s="176"/>
+      <c r="AV17" s="176"/>
+      <c r="AW17" s="177"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="162"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="163"/>
-      <c r="AN18" s="147"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="148"/>
-      <c r="AQ18" s="148"/>
-      <c r="AR18" s="149"/>
-      <c r="AS18" s="147"/>
-      <c r="AT18" s="148"/>
-      <c r="AU18" s="148"/>
-      <c r="AV18" s="148"/>
-      <c r="AW18" s="149"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="173"/>
+      <c r="AL18" s="173"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="175"/>
+      <c r="AO18" s="176"/>
+      <c r="AP18" s="176"/>
+      <c r="AQ18" s="176"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="175"/>
+      <c r="AT18" s="176"/>
+      <c r="AU18" s="176"/>
+      <c r="AV18" s="176"/>
+      <c r="AW18" s="177"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="162"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="163"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="160"/>
-      <c r="AP19" s="160"/>
-      <c r="AQ19" s="160"/>
-      <c r="AR19" s="160"/>
-      <c r="AS19" s="147"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="149"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="173"/>
+      <c r="AL19" s="173"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="175"/>
+      <c r="AT19" s="176"/>
+      <c r="AU19" s="176"/>
+      <c r="AV19" s="176"/>
+      <c r="AW19" s="177"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="163"/>
-      <c r="AN20" s="147"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="149"/>
-      <c r="AS20" s="147"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="149"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="173"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="175"/>
+      <c r="AO20" s="176"/>
+      <c r="AP20" s="176"/>
+      <c r="AQ20" s="176"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="175"/>
+      <c r="AT20" s="176"/>
+      <c r="AU20" s="176"/>
+      <c r="AV20" s="176"/>
+      <c r="AW20" s="177"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="162"/>
-      <c r="AJ21" s="162"/>
-      <c r="AK21" s="162"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="163"/>
-      <c r="AN21" s="147"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="149"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="149"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="173"/>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="175"/>
+      <c r="AO21" s="176"/>
+      <c r="AP21" s="176"/>
+      <c r="AQ21" s="176"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="175"/>
+      <c r="AT21" s="176"/>
+      <c r="AU21" s="176"/>
+      <c r="AV21" s="176"/>
+      <c r="AW21" s="177"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="162"/>
-      <c r="AJ22" s="162"/>
-      <c r="AK22" s="162"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="147"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="149"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="149"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="173"/>
+      <c r="AJ22" s="173"/>
+      <c r="AK22" s="173"/>
+      <c r="AL22" s="173"/>
+      <c r="AM22" s="174"/>
+      <c r="AN22" s="175"/>
+      <c r="AO22" s="176"/>
+      <c r="AP22" s="176"/>
+      <c r="AQ22" s="176"/>
+      <c r="AR22" s="177"/>
+      <c r="AS22" s="175"/>
+      <c r="AT22" s="176"/>
+      <c r="AU22" s="176"/>
+      <c r="AV22" s="176"/>
+      <c r="AW22" s="177"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="162"/>
-      <c r="AK23" s="162"/>
-      <c r="AL23" s="162"/>
-      <c r="AM23" s="163"/>
-      <c r="AN23" s="147"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="149"/>
-      <c r="AS23" s="147"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="149"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
+      <c r="AL23" s="173"/>
+      <c r="AM23" s="174"/>
+      <c r="AN23" s="175"/>
+      <c r="AO23" s="176"/>
+      <c r="AP23" s="176"/>
+      <c r="AQ23" s="176"/>
+      <c r="AR23" s="177"/>
+      <c r="AS23" s="175"/>
+      <c r="AT23" s="176"/>
+      <c r="AU23" s="176"/>
+      <c r="AV23" s="176"/>
+      <c r="AW23" s="177"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="162"/>
-      <c r="AJ24" s="162"/>
-      <c r="AK24" s="162"/>
-      <c r="AL24" s="162"/>
-      <c r="AM24" s="163"/>
-      <c r="AN24" s="147"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="149"/>
-      <c r="AS24" s="147"/>
-      <c r="AT24" s="148"/>
-      <c r="AU24" s="148"/>
-      <c r="AV24" s="148"/>
-      <c r="AW24" s="149"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
+      <c r="AL24" s="173"/>
+      <c r="AM24" s="174"/>
+      <c r="AN24" s="175"/>
+      <c r="AO24" s="176"/>
+      <c r="AP24" s="176"/>
+      <c r="AQ24" s="176"/>
+      <c r="AR24" s="177"/>
+      <c r="AS24" s="175"/>
+      <c r="AT24" s="176"/>
+      <c r="AU24" s="176"/>
+      <c r="AV24" s="176"/>
+      <c r="AW24" s="177"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="163"/>
-      <c r="AN25" s="147"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="149"/>
-      <c r="AS25" s="147"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="149"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
+      <c r="AL25" s="173"/>
+      <c r="AM25" s="174"/>
+      <c r="AN25" s="175"/>
+      <c r="AO25" s="176"/>
+      <c r="AP25" s="176"/>
+      <c r="AQ25" s="176"/>
+      <c r="AR25" s="177"/>
+      <c r="AS25" s="175"/>
+      <c r="AT25" s="176"/>
+      <c r="AU25" s="176"/>
+      <c r="AV25" s="176"/>
+      <c r="AW25" s="177"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="163"/>
-      <c r="AN26" s="147"/>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="148"/>
-      <c r="AQ26" s="148"/>
-      <c r="AR26" s="149"/>
-      <c r="AS26" s="147"/>
-      <c r="AT26" s="148"/>
-      <c r="AU26" s="148"/>
-      <c r="AV26" s="148"/>
-      <c r="AW26" s="149"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="173"/>
+      <c r="AJ26" s="173"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="173"/>
+      <c r="AM26" s="174"/>
+      <c r="AN26" s="175"/>
+      <c r="AO26" s="176"/>
+      <c r="AP26" s="176"/>
+      <c r="AQ26" s="176"/>
+      <c r="AR26" s="177"/>
+      <c r="AS26" s="175"/>
+      <c r="AT26" s="176"/>
+      <c r="AU26" s="176"/>
+      <c r="AV26" s="176"/>
+      <c r="AW26" s="177"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="163"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="149"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="148"/>
-      <c r="AU27" s="148"/>
-      <c r="AV27" s="148"/>
-      <c r="AW27" s="149"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="173"/>
+      <c r="AJ27" s="173"/>
+      <c r="AK27" s="173"/>
+      <c r="AL27" s="173"/>
+      <c r="AM27" s="174"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="176"/>
+      <c r="AP27" s="176"/>
+      <c r="AQ27" s="176"/>
+      <c r="AR27" s="177"/>
+      <c r="AS27" s="175"/>
+      <c r="AT27" s="176"/>
+      <c r="AU27" s="176"/>
+      <c r="AV27" s="176"/>
+      <c r="AW27" s="177"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="163"/>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="149"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="149"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
+      <c r="AJ28" s="173"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="173"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="175"/>
+      <c r="AO28" s="176"/>
+      <c r="AP28" s="176"/>
+      <c r="AQ28" s="176"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="175"/>
+      <c r="AT28" s="176"/>
+      <c r="AU28" s="176"/>
+      <c r="AV28" s="176"/>
+      <c r="AW28" s="177"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="163"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="148"/>
-      <c r="AP29" s="148"/>
-      <c r="AQ29" s="148"/>
-      <c r="AR29" s="149"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="148"/>
-      <c r="AU29" s="148"/>
-      <c r="AV29" s="148"/>
-      <c r="AW29" s="149"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="173"/>
+      <c r="AJ29" s="173"/>
+      <c r="AK29" s="173"/>
+      <c r="AL29" s="173"/>
+      <c r="AM29" s="174"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="176"/>
+      <c r="AP29" s="176"/>
+      <c r="AQ29" s="176"/>
+      <c r="AR29" s="177"/>
+      <c r="AS29" s="175"/>
+      <c r="AT29" s="176"/>
+      <c r="AU29" s="176"/>
+      <c r="AV29" s="176"/>
+      <c r="AW29" s="177"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="162"/>
-      <c r="AJ30" s="162"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="162"/>
-      <c r="AM30" s="163"/>
-      <c r="AN30" s="147"/>
-      <c r="AO30" s="148"/>
-      <c r="AP30" s="148"/>
-      <c r="AQ30" s="148"/>
-      <c r="AR30" s="149"/>
-      <c r="AS30" s="147"/>
-      <c r="AT30" s="148"/>
-      <c r="AU30" s="148"/>
-      <c r="AV30" s="148"/>
-      <c r="AW30" s="149"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="173"/>
+      <c r="AJ30" s="173"/>
+      <c r="AK30" s="173"/>
+      <c r="AL30" s="173"/>
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="176"/>
+      <c r="AP30" s="176"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177"/>
+      <c r="AS30" s="175"/>
+      <c r="AT30" s="176"/>
+      <c r="AU30" s="176"/>
+      <c r="AV30" s="176"/>
+      <c r="AW30" s="177"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="162"/>
-      <c r="AJ31" s="162"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="162"/>
-      <c r="AM31" s="163"/>
-      <c r="AN31" s="147"/>
-      <c r="AO31" s="148"/>
-      <c r="AP31" s="148"/>
-      <c r="AQ31" s="148"/>
-      <c r="AR31" s="149"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="148"/>
-      <c r="AU31" s="148"/>
-      <c r="AV31" s="148"/>
-      <c r="AW31" s="149"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="173"/>
+      <c r="AJ31" s="173"/>
+      <c r="AK31" s="173"/>
+      <c r="AL31" s="173"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="175"/>
+      <c r="AO31" s="176"/>
+      <c r="AP31" s="176"/>
+      <c r="AQ31" s="176"/>
+      <c r="AR31" s="177"/>
+      <c r="AS31" s="175"/>
+      <c r="AT31" s="176"/>
+      <c r="AU31" s="176"/>
+      <c r="AV31" s="176"/>
+      <c r="AW31" s="177"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="162"/>
-      <c r="AJ32" s="162"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="162"/>
-      <c r="AM32" s="163"/>
-      <c r="AN32" s="147"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="149"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="148"/>
-      <c r="AU32" s="148"/>
-      <c r="AV32" s="148"/>
-      <c r="AW32" s="149"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="173"/>
+      <c r="AJ32" s="173"/>
+      <c r="AK32" s="173"/>
+      <c r="AL32" s="173"/>
+      <c r="AM32" s="174"/>
+      <c r="AN32" s="175"/>
+      <c r="AO32" s="176"/>
+      <c r="AP32" s="176"/>
+      <c r="AQ32" s="176"/>
+      <c r="AR32" s="177"/>
+      <c r="AS32" s="175"/>
+      <c r="AT32" s="176"/>
+      <c r="AU32" s="176"/>
+      <c r="AV32" s="176"/>
+      <c r="AW32" s="177"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="162"/>
-      <c r="AJ33" s="162"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="147"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="149"/>
-      <c r="AS33" s="147"/>
-      <c r="AT33" s="148"/>
-      <c r="AU33" s="148"/>
-      <c r="AV33" s="148"/>
-      <c r="AW33" s="149"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="173"/>
+      <c r="AJ33" s="173"/>
+      <c r="AK33" s="173"/>
+      <c r="AL33" s="173"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="175"/>
+      <c r="AO33" s="176"/>
+      <c r="AP33" s="176"/>
+      <c r="AQ33" s="176"/>
+      <c r="AR33" s="177"/>
+      <c r="AS33" s="175"/>
+      <c r="AT33" s="176"/>
+      <c r="AU33" s="176"/>
+      <c r="AV33" s="176"/>
+      <c r="AW33" s="177"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="150"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="160"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="160"/>
-      <c r="V34" s="161"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-      <c r="AB34" s="162"/>
-      <c r="AC34" s="162"/>
-      <c r="AD34" s="162"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="162"/>
-      <c r="AG34" s="162"/>
-      <c r="AH34" s="162"/>
-      <c r="AI34" s="162"/>
-      <c r="AJ34" s="162"/>
-      <c r="AK34" s="162"/>
-      <c r="AL34" s="162"/>
-      <c r="AM34" s="163"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="148"/>
-      <c r="AR34" s="149"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="148"/>
-      <c r="AU34" s="148"/>
-      <c r="AV34" s="148"/>
-      <c r="AW34" s="149"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="185"/>
+      <c r="Q34" s="185"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="172"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
+      <c r="AI34" s="173"/>
+      <c r="AJ34" s="173"/>
+      <c r="AK34" s="173"/>
+      <c r="AL34" s="173"/>
+      <c r="AM34" s="174"/>
+      <c r="AN34" s="175"/>
+      <c r="AO34" s="176"/>
+      <c r="AP34" s="176"/>
+      <c r="AQ34" s="176"/>
+      <c r="AR34" s="177"/>
+      <c r="AS34" s="175"/>
+      <c r="AT34" s="176"/>
+      <c r="AU34" s="176"/>
+      <c r="AV34" s="176"/>
+      <c r="AW34" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7024,230 +7254,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7407,11 +7422,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="191"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="192"/>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="193"/>
+      <c r="AO2" s="193"/>
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="195"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7420,14 +7435,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="195"/>
-      <c r="BC2" s="195"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="195"/>
-      <c r="BF2" s="195"/>
-      <c r="BG2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="197"/>
+      <c r="BC2" s="197"/>
+      <c r="BD2" s="197"/>
+      <c r="BE2" s="197"/>
+      <c r="BF2" s="197"/>
+      <c r="BG2" s="198"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8956,10 +8971,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="201">
+      <c r="B42" s="187">
         <v>1</v>
       </c>
-      <c r="C42" s="202"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="69" t="s">
         <v>132</v>
       </c>
@@ -8991,16 +9006,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="197" t="s">
+      <c r="AE42" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="198"/>
-      <c r="AG42" s="197"/>
-      <c r="AH42" s="198"/>
-      <c r="AI42" s="197"/>
-      <c r="AJ42" s="198"/>
-      <c r="AK42" s="197"/>
-      <c r="AL42" s="198"/>
+      <c r="AF42" s="192"/>
+      <c r="AG42" s="191"/>
+      <c r="AH42" s="192"/>
+      <c r="AI42" s="191"/>
+      <c r="AJ42" s="192"/>
+      <c r="AK42" s="191"/>
+      <c r="AL42" s="192"/>
       <c r="AM42" s="70" t="s">
         <v>135</v>
       </c>
@@ -9034,10 +9049,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="122"/>
-      <c r="B43" s="187">
+      <c r="B43" s="189">
         <v>2</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="190"/>
       <c r="D43" s="123" t="s">
         <v>132</v>
       </c>
@@ -9069,16 +9084,16 @@
       <c r="AB43" s="124"/>
       <c r="AC43" s="124"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="189" t="s">
+      <c r="AE43" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="190"/>
-      <c r="AG43" s="189"/>
-      <c r="AH43" s="190"/>
-      <c r="AI43" s="189"/>
-      <c r="AJ43" s="190"/>
-      <c r="AK43" s="189"/>
-      <c r="AL43" s="190"/>
+      <c r="AF43" s="202"/>
+      <c r="AG43" s="201"/>
+      <c r="AH43" s="202"/>
+      <c r="AI43" s="201"/>
+      <c r="AJ43" s="202"/>
+      <c r="AK43" s="201"/>
+      <c r="AL43" s="202"/>
       <c r="AM43" s="126" t="s">
         <v>278</v>
       </c>
@@ -9104,10 +9119,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="201">
+      <c r="B44" s="187">
         <v>3</v>
       </c>
-      <c r="C44" s="202"/>
+      <c r="C44" s="188"/>
       <c r="D44" s="99" t="s">
         <v>132</v>
       </c>
@@ -9139,16 +9154,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="197" t="s">
+      <c r="AE44" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="198"/>
-      <c r="AG44" s="197"/>
-      <c r="AH44" s="198"/>
-      <c r="AI44" s="197"/>
-      <c r="AJ44" s="198"/>
-      <c r="AK44" s="197"/>
-      <c r="AL44" s="198"/>
+      <c r="AF44" s="192"/>
+      <c r="AG44" s="191"/>
+      <c r="AH44" s="192"/>
+      <c r="AI44" s="191"/>
+      <c r="AJ44" s="192"/>
+      <c r="AK44" s="191"/>
+      <c r="AL44" s="192"/>
       <c r="AM44" s="70" t="s">
         <v>141</v>
       </c>
@@ -9182,10 +9197,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="187">
+      <c r="B45" s="189">
         <v>4</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="190"/>
       <c r="D45" s="103" t="s">
         <v>142</v>
       </c>
@@ -9217,16 +9232,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="104"/>
-      <c r="AE45" s="197"/>
-      <c r="AF45" s="198"/>
-      <c r="AG45" s="197"/>
-      <c r="AH45" s="198"/>
-      <c r="AI45" s="197" t="s">
+      <c r="AE45" s="191"/>
+      <c r="AF45" s="192"/>
+      <c r="AG45" s="191"/>
+      <c r="AH45" s="192"/>
+      <c r="AI45" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="198"/>
-      <c r="AK45" s="197"/>
-      <c r="AL45" s="198"/>
+      <c r="AJ45" s="192"/>
+      <c r="AK45" s="191"/>
+      <c r="AL45" s="192"/>
       <c r="AM45" s="70" t="s">
         <v>145</v>
       </c>
@@ -9260,10 +9275,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="201">
+      <c r="B46" s="187">
         <v>5</v>
       </c>
-      <c r="C46" s="202"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="99" t="s">
         <v>142</v>
       </c>
@@ -9295,16 +9310,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="197" t="s">
+      <c r="AE46" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="198"/>
-      <c r="AG46" s="197"/>
-      <c r="AH46" s="198"/>
-      <c r="AI46" s="197"/>
-      <c r="AJ46" s="198"/>
-      <c r="AK46" s="197"/>
-      <c r="AL46" s="198"/>
+      <c r="AF46" s="192"/>
+      <c r="AG46" s="191"/>
+      <c r="AH46" s="192"/>
+      <c r="AI46" s="191"/>
+      <c r="AJ46" s="192"/>
+      <c r="AK46" s="191"/>
+      <c r="AL46" s="192"/>
       <c r="AM46" s="70" t="s">
         <v>146</v>
       </c>
@@ -9338,10 +9353,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="187">
+      <c r="B47" s="189">
         <v>6</v>
       </c>
-      <c r="C47" s="188"/>
+      <c r="C47" s="190"/>
       <c r="D47" s="99" t="s">
         <v>142</v>
       </c>
@@ -9373,16 +9388,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="197"/>
-      <c r="AF47" s="198"/>
-      <c r="AG47" s="197" t="s">
+      <c r="AE47" s="191"/>
+      <c r="AF47" s="192"/>
+      <c r="AG47" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="198"/>
-      <c r="AI47" s="197"/>
-      <c r="AJ47" s="198"/>
-      <c r="AK47" s="197"/>
-      <c r="AL47" s="198"/>
+      <c r="AH47" s="192"/>
+      <c r="AI47" s="191"/>
+      <c r="AJ47" s="192"/>
+      <c r="AK47" s="191"/>
+      <c r="AL47" s="192"/>
       <c r="AM47" s="70" t="s">
         <v>136</v>
       </c>
@@ -9421,26 +9436,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9449,11 +9449,26 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9599,7 +9614,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="194" t="str">
+      <c r="CU1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9730,7 +9745,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="194"/>
+      <c r="CU2" s="196"/>
       <c r="CV2" s="203"/>
       <c r="CW2" s="203"/>
       <c r="CX2" s="203"/>
@@ -9946,22 +9961,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="212" t="s">
@@ -9970,13 +9985,13 @@
       <c r="J6" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="180" t="s">
+      <c r="K6" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="180" t="s">
+      <c r="M6" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -9991,17 +10006,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="212"/>
       <c r="J7" s="212"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -10220,22 +10235,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="180" t="s">
+      <c r="F14" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="180" t="s">
+      <c r="G14" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="213" t="s">
@@ -10244,13 +10259,13 @@
       <c r="J14" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="180" t="s">
+      <c r="K14" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="180" t="s">
+      <c r="L14" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="180" t="s">
+      <c r="M14" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -10265,17 +10280,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="214"/>
       <c r="J15" s="212"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10418,8 +10433,8 @@
       <c r="L18" s="119" t="s">
         <v>279</v>
       </c>
-      <c r="M18" s="119" t="s">
-        <v>101</v>
+      <c r="M18" s="120" t="s">
+        <v>295</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>34</v>
@@ -10462,22 +10477,22 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="180" t="s">
+      <c r="H21" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="212" t="s">
@@ -10486,13 +10501,13 @@
       <c r="J21" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="180" t="s">
+      <c r="K21" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="180" t="s">
+      <c r="L21" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="180" t="s">
+      <c r="M21" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10507,17 +10522,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
       <c r="I22" s="212"/>
       <c r="J22" s="212"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10808,7 +10823,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="119" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>35</v>
@@ -10825,6 +10840,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10837,30 +10876,6 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10934,7 +10949,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -10950,7 +10965,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11021,7 +11036,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -14533,7 +14548,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -14549,7 +14564,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -14620,7 +14635,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -19730,6 +19745,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="T19:AC20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="T17:AC18"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19740,13 +19762,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="T19:AC20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="T17:AC18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19820,7 +19835,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -19836,7 +19851,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -19907,7 +19922,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -31063,6 +31078,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -31220,12 +31241,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31236,6 +31251,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31253,15 +31277,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20239EF4-3608-4B63-B6C6-B2658F42567D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C61C84-237C-455E-9BC6-13B39AA2472F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -822,10 +822,6 @@
   <si>
     <t>２０１９年　９月０６日</t>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>SC-K20</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>李</t>
@@ -2352,6 +2348,10 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>K-20</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3261,6 +3261,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3288,107 +3373,16 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3409,17 +3403,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5250,1770 +5250,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="147"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="147"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="148"/>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="179"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="179"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="179"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="179"/>
+      <c r="AV2" s="179"/>
+      <c r="AW2" s="179"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150" t="s">
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="150" t="s">
+      <c r="K3" s="182"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="149" t="s">
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149" t="s">
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="149"/>
-      <c r="AJ3" s="149"/>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="149"/>
-      <c r="AN3" s="149" t="s">
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="149"/>
-      <c r="AP3" s="149"/>
-      <c r="AQ3" s="149"/>
-      <c r="AR3" s="149"/>
-      <c r="AS3" s="149" t="s">
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="149"/>
-      <c r="AU3" s="149"/>
-      <c r="AV3" s="149"/>
-      <c r="AW3" s="149"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="149"/>
-      <c r="AN4" s="149"/>
-      <c r="AO4" s="149"/>
-      <c r="AP4" s="149"/>
-      <c r="AQ4" s="149"/>
-      <c r="AR4" s="149"/>
-      <c r="AS4" s="149"/>
-      <c r="AT4" s="149"/>
-      <c r="AU4" s="149"/>
-      <c r="AV4" s="149"/>
-      <c r="AW4" s="149"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="180"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="180"/>
+      <c r="AM4" s="180"/>
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="180"/>
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="157">
+      <c r="B5" s="172">
         <v>1</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="158">
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="153">
         <v>43714</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159" t="s">
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="159" t="s">
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="156" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="165" t="s">
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="156"/>
-      <c r="AW5" s="156"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="165"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="156"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="156"/>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="156"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="160"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="171"/>
+      <c r="AN6" s="160"/>
+      <c r="AO6" s="160"/>
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="160"/>
+      <c r="AS6" s="160"/>
+      <c r="AT6" s="160"/>
+      <c r="AU6" s="160"/>
+      <c r="AV6" s="160"/>
+      <c r="AW6" s="160"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
-      <c r="AK7" s="165"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="156"/>
-      <c r="AR7" s="156"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="156"/>
-      <c r="AV7" s="156"/>
-      <c r="AW7" s="156"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="171"/>
+      <c r="AA7" s="171"/>
+      <c r="AB7" s="171"/>
+      <c r="AC7" s="171"/>
+      <c r="AD7" s="171"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="171"/>
+      <c r="AG7" s="171"/>
+      <c r="AH7" s="171"/>
+      <c r="AI7" s="171"/>
+      <c r="AJ7" s="171"/>
+      <c r="AK7" s="171"/>
+      <c r="AL7" s="171"/>
+      <c r="AM7" s="171"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="160"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="160"/>
+      <c r="AR7" s="160"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="160"/>
+      <c r="AU7" s="160"/>
+      <c r="AV7" s="160"/>
+      <c r="AW7" s="160"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="165"/>
-      <c r="AL8" s="165"/>
-      <c r="AM8" s="165"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="160"/>
+      <c r="AO8" s="160"/>
+      <c r="AP8" s="160"/>
+      <c r="AQ8" s="160"/>
+      <c r="AR8" s="160"/>
+      <c r="AS8" s="160"/>
+      <c r="AT8" s="160"/>
+      <c r="AU8" s="160"/>
+      <c r="AV8" s="160"/>
+      <c r="AW8" s="160"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="160"/>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
+      <c r="AU9" s="160"/>
+      <c r="AV9" s="160"/>
+      <c r="AW9" s="160"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="165"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="165"/>
-      <c r="AL10" s="165"/>
-      <c r="AM10" s="165"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="171"/>
+      <c r="AL10" s="171"/>
+      <c r="AM10" s="171"/>
+      <c r="AN10" s="160"/>
+      <c r="AO10" s="160"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="160"/>
+      <c r="AR10" s="160"/>
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="160"/>
+      <c r="AW10" s="160"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="178"/>
-      <c r="AH11" s="178"/>
-      <c r="AI11" s="178"/>
-      <c r="AJ11" s="178"/>
-      <c r="AK11" s="178"/>
-      <c r="AL11" s="178"/>
-      <c r="AM11" s="179"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="173"/>
+      <c r="AL11" s="173"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="160"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="160"/>
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="173"/>
-      <c r="AK12" s="173"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="174"/>
-      <c r="AN12" s="175"/>
-      <c r="AO12" s="176"/>
-      <c r="AP12" s="176"/>
-      <c r="AQ12" s="176"/>
-      <c r="AR12" s="177"/>
-      <c r="AS12" s="175"/>
-      <c r="AT12" s="176"/>
-      <c r="AU12" s="176"/>
-      <c r="AV12" s="176"/>
-      <c r="AW12" s="177"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="162"/>
+      <c r="AM12" s="163"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="148"/>
+      <c r="AQ12" s="148"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="147"/>
+      <c r="AT12" s="148"/>
+      <c r="AU12" s="148"/>
+      <c r="AV12" s="148"/>
+      <c r="AW12" s="149"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="173"/>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="174"/>
-      <c r="AN13" s="175"/>
-      <c r="AO13" s="176"/>
-      <c r="AP13" s="176"/>
-      <c r="AQ13" s="176"/>
-      <c r="AR13" s="177"/>
-      <c r="AS13" s="175"/>
-      <c r="AT13" s="176"/>
-      <c r="AU13" s="176"/>
-      <c r="AV13" s="176"/>
-      <c r="AW13" s="177"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="162"/>
+      <c r="AF13" s="162"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="162"/>
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="162"/>
+      <c r="AL13" s="162"/>
+      <c r="AM13" s="163"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="149"/>
+      <c r="AS13" s="147"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="149"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="165"/>
-      <c r="AL14" s="165"/>
-      <c r="AM14" s="165"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="175"/>
-      <c r="AT14" s="176"/>
-      <c r="AU14" s="176"/>
-      <c r="AV14" s="176"/>
-      <c r="AW14" s="177"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="171"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="171"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="160"/>
+      <c r="AP14" s="160"/>
+      <c r="AQ14" s="160"/>
+      <c r="AR14" s="160"/>
+      <c r="AS14" s="147"/>
+      <c r="AT14" s="148"/>
+      <c r="AU14" s="148"/>
+      <c r="AV14" s="148"/>
+      <c r="AW14" s="149"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="173"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="173"/>
-      <c r="AM15" s="174"/>
-      <c r="AN15" s="175"/>
-      <c r="AO15" s="176"/>
-      <c r="AP15" s="176"/>
-      <c r="AQ15" s="176"/>
-      <c r="AR15" s="177"/>
-      <c r="AS15" s="175"/>
-      <c r="AT15" s="176"/>
-      <c r="AU15" s="176"/>
-      <c r="AV15" s="176"/>
-      <c r="AW15" s="177"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="162"/>
+      <c r="AM15" s="163"/>
+      <c r="AN15" s="147"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="148"/>
+      <c r="AR15" s="149"/>
+      <c r="AS15" s="147"/>
+      <c r="AT15" s="148"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="148"/>
+      <c r="AW15" s="149"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="173"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="174"/>
-      <c r="AN16" s="175"/>
-      <c r="AO16" s="176"/>
-      <c r="AP16" s="176"/>
-      <c r="AQ16" s="176"/>
-      <c r="AR16" s="177"/>
-      <c r="AS16" s="175"/>
-      <c r="AT16" s="176"/>
-      <c r="AU16" s="176"/>
-      <c r="AV16" s="176"/>
-      <c r="AW16" s="177"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="162"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="162"/>
+      <c r="AM16" s="163"/>
+      <c r="AN16" s="147"/>
+      <c r="AO16" s="148"/>
+      <c r="AP16" s="148"/>
+      <c r="AQ16" s="148"/>
+      <c r="AR16" s="149"/>
+      <c r="AS16" s="147"/>
+      <c r="AT16" s="148"/>
+      <c r="AU16" s="148"/>
+      <c r="AV16" s="148"/>
+      <c r="AW16" s="149"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="173"/>
-      <c r="AL17" s="173"/>
-      <c r="AM17" s="174"/>
-      <c r="AN17" s="175"/>
-      <c r="AO17" s="176"/>
-      <c r="AP17" s="176"/>
-      <c r="AQ17" s="176"/>
-      <c r="AR17" s="177"/>
-      <c r="AS17" s="175"/>
-      <c r="AT17" s="176"/>
-      <c r="AU17" s="176"/>
-      <c r="AV17" s="176"/>
-      <c r="AW17" s="177"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="162"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="163"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="148"/>
+      <c r="AP17" s="148"/>
+      <c r="AQ17" s="148"/>
+      <c r="AR17" s="149"/>
+      <c r="AS17" s="147"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="148"/>
+      <c r="AV17" s="148"/>
+      <c r="AW17" s="149"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="173"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="173"/>
-      <c r="AL18" s="173"/>
-      <c r="AM18" s="174"/>
-      <c r="AN18" s="175"/>
-      <c r="AO18" s="176"/>
-      <c r="AP18" s="176"/>
-      <c r="AQ18" s="176"/>
-      <c r="AR18" s="177"/>
-      <c r="AS18" s="175"/>
-      <c r="AT18" s="176"/>
-      <c r="AU18" s="176"/>
-      <c r="AV18" s="176"/>
-      <c r="AW18" s="177"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="162"/>
+      <c r="AJ18" s="162"/>
+      <c r="AK18" s="162"/>
+      <c r="AL18" s="162"/>
+      <c r="AM18" s="163"/>
+      <c r="AN18" s="147"/>
+      <c r="AO18" s="148"/>
+      <c r="AP18" s="148"/>
+      <c r="AQ18" s="148"/>
+      <c r="AR18" s="149"/>
+      <c r="AS18" s="147"/>
+      <c r="AT18" s="148"/>
+      <c r="AU18" s="148"/>
+      <c r="AV18" s="148"/>
+      <c r="AW18" s="149"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="173"/>
-      <c r="AJ19" s="173"/>
-      <c r="AK19" s="173"/>
-      <c r="AL19" s="173"/>
-      <c r="AM19" s="174"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="175"/>
-      <c r="AT19" s="176"/>
-      <c r="AU19" s="176"/>
-      <c r="AV19" s="176"/>
-      <c r="AW19" s="177"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="162"/>
+      <c r="AJ19" s="162"/>
+      <c r="AK19" s="162"/>
+      <c r="AL19" s="162"/>
+      <c r="AM19" s="163"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="160"/>
+      <c r="AP19" s="160"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="147"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="148"/>
+      <c r="AV19" s="148"/>
+      <c r="AW19" s="149"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="176"/>
-      <c r="U20" s="177"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="173"/>
-      <c r="AJ20" s="173"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="173"/>
-      <c r="AM20" s="174"/>
-      <c r="AN20" s="175"/>
-      <c r="AO20" s="176"/>
-      <c r="AP20" s="176"/>
-      <c r="AQ20" s="176"/>
-      <c r="AR20" s="177"/>
-      <c r="AS20" s="175"/>
-      <c r="AT20" s="176"/>
-      <c r="AU20" s="176"/>
-      <c r="AV20" s="176"/>
-      <c r="AW20" s="177"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
+      <c r="AL20" s="162"/>
+      <c r="AM20" s="163"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="148"/>
+      <c r="AP20" s="148"/>
+      <c r="AQ20" s="148"/>
+      <c r="AR20" s="149"/>
+      <c r="AS20" s="147"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="149"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
-      <c r="AI21" s="173"/>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="174"/>
-      <c r="AN21" s="175"/>
-      <c r="AO21" s="176"/>
-      <c r="AP21" s="176"/>
-      <c r="AQ21" s="176"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="175"/>
-      <c r="AT21" s="176"/>
-      <c r="AU21" s="176"/>
-      <c r="AV21" s="176"/>
-      <c r="AW21" s="177"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="163"/>
+      <c r="AN21" s="147"/>
+      <c r="AO21" s="148"/>
+      <c r="AP21" s="148"/>
+      <c r="AQ21" s="148"/>
+      <c r="AR21" s="149"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="148"/>
+      <c r="AV21" s="148"/>
+      <c r="AW21" s="149"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="173"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="173"/>
-      <c r="AI22" s="173"/>
-      <c r="AJ22" s="173"/>
-      <c r="AK22" s="173"/>
-      <c r="AL22" s="173"/>
-      <c r="AM22" s="174"/>
-      <c r="AN22" s="175"/>
-      <c r="AO22" s="176"/>
-      <c r="AP22" s="176"/>
-      <c r="AQ22" s="176"/>
-      <c r="AR22" s="177"/>
-      <c r="AS22" s="175"/>
-      <c r="AT22" s="176"/>
-      <c r="AU22" s="176"/>
-      <c r="AV22" s="176"/>
-      <c r="AW22" s="177"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="162"/>
+      <c r="AJ22" s="162"/>
+      <c r="AK22" s="162"/>
+      <c r="AL22" s="162"/>
+      <c r="AM22" s="163"/>
+      <c r="AN22" s="147"/>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="148"/>
+      <c r="AR22" s="149"/>
+      <c r="AS22" s="147"/>
+      <c r="AT22" s="148"/>
+      <c r="AU22" s="148"/>
+      <c r="AV22" s="148"/>
+      <c r="AW22" s="149"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="173"/>
-      <c r="AJ23" s="173"/>
-      <c r="AK23" s="173"/>
-      <c r="AL23" s="173"/>
-      <c r="AM23" s="174"/>
-      <c r="AN23" s="175"/>
-      <c r="AO23" s="176"/>
-      <c r="AP23" s="176"/>
-      <c r="AQ23" s="176"/>
-      <c r="AR23" s="177"/>
-      <c r="AS23" s="175"/>
-      <c r="AT23" s="176"/>
-      <c r="AU23" s="176"/>
-      <c r="AV23" s="176"/>
-      <c r="AW23" s="177"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="162"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="162"/>
+      <c r="AL23" s="162"/>
+      <c r="AM23" s="163"/>
+      <c r="AN23" s="147"/>
+      <c r="AO23" s="148"/>
+      <c r="AP23" s="148"/>
+      <c r="AQ23" s="148"/>
+      <c r="AR23" s="149"/>
+      <c r="AS23" s="147"/>
+      <c r="AT23" s="148"/>
+      <c r="AU23" s="148"/>
+      <c r="AV23" s="148"/>
+      <c r="AW23" s="149"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="173"/>
-      <c r="AJ24" s="173"/>
-      <c r="AK24" s="173"/>
-      <c r="AL24" s="173"/>
-      <c r="AM24" s="174"/>
-      <c r="AN24" s="175"/>
-      <c r="AO24" s="176"/>
-      <c r="AP24" s="176"/>
-      <c r="AQ24" s="176"/>
-      <c r="AR24" s="177"/>
-      <c r="AS24" s="175"/>
-      <c r="AT24" s="176"/>
-      <c r="AU24" s="176"/>
-      <c r="AV24" s="176"/>
-      <c r="AW24" s="177"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="161"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="162"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="162"/>
+      <c r="AJ24" s="162"/>
+      <c r="AK24" s="162"/>
+      <c r="AL24" s="162"/>
+      <c r="AM24" s="163"/>
+      <c r="AN24" s="147"/>
+      <c r="AO24" s="148"/>
+      <c r="AP24" s="148"/>
+      <c r="AQ24" s="148"/>
+      <c r="AR24" s="149"/>
+      <c r="AS24" s="147"/>
+      <c r="AT24" s="148"/>
+      <c r="AU24" s="148"/>
+      <c r="AV24" s="148"/>
+      <c r="AW24" s="149"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="173"/>
-      <c r="AJ25" s="173"/>
-      <c r="AK25" s="173"/>
-      <c r="AL25" s="173"/>
-      <c r="AM25" s="174"/>
-      <c r="AN25" s="175"/>
-      <c r="AO25" s="176"/>
-      <c r="AP25" s="176"/>
-      <c r="AQ25" s="176"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="175"/>
-      <c r="AT25" s="176"/>
-      <c r="AU25" s="176"/>
-      <c r="AV25" s="176"/>
-      <c r="AW25" s="177"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
+      <c r="AM25" s="163"/>
+      <c r="AN25" s="147"/>
+      <c r="AO25" s="148"/>
+      <c r="AP25" s="148"/>
+      <c r="AQ25" s="148"/>
+      <c r="AR25" s="149"/>
+      <c r="AS25" s="147"/>
+      <c r="AT25" s="148"/>
+      <c r="AU25" s="148"/>
+      <c r="AV25" s="148"/>
+      <c r="AW25" s="149"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="173"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="173"/>
-      <c r="AM26" s="174"/>
-      <c r="AN26" s="175"/>
-      <c r="AO26" s="176"/>
-      <c r="AP26" s="176"/>
-      <c r="AQ26" s="176"/>
-      <c r="AR26" s="177"/>
-      <c r="AS26" s="175"/>
-      <c r="AT26" s="176"/>
-      <c r="AU26" s="176"/>
-      <c r="AV26" s="176"/>
-      <c r="AW26" s="177"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="162"/>
+      <c r="AM26" s="163"/>
+      <c r="AN26" s="147"/>
+      <c r="AO26" s="148"/>
+      <c r="AP26" s="148"/>
+      <c r="AQ26" s="148"/>
+      <c r="AR26" s="149"/>
+      <c r="AS26" s="147"/>
+      <c r="AT26" s="148"/>
+      <c r="AU26" s="148"/>
+      <c r="AV26" s="148"/>
+      <c r="AW26" s="149"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="173"/>
-      <c r="AJ27" s="173"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="173"/>
-      <c r="AM27" s="174"/>
-      <c r="AN27" s="175"/>
-      <c r="AO27" s="176"/>
-      <c r="AP27" s="176"/>
-      <c r="AQ27" s="176"/>
-      <c r="AR27" s="177"/>
-      <c r="AS27" s="175"/>
-      <c r="AT27" s="176"/>
-      <c r="AU27" s="176"/>
-      <c r="AV27" s="176"/>
-      <c r="AW27" s="177"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="161"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="162"/>
+      <c r="AL27" s="162"/>
+      <c r="AM27" s="163"/>
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="148"/>
+      <c r="AP27" s="148"/>
+      <c r="AQ27" s="148"/>
+      <c r="AR27" s="149"/>
+      <c r="AS27" s="147"/>
+      <c r="AT27" s="148"/>
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="148"/>
+      <c r="AW27" s="149"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
-      <c r="AM28" s="174"/>
-      <c r="AN28" s="175"/>
-      <c r="AO28" s="176"/>
-      <c r="AP28" s="176"/>
-      <c r="AQ28" s="176"/>
-      <c r="AR28" s="177"/>
-      <c r="AS28" s="175"/>
-      <c r="AT28" s="176"/>
-      <c r="AU28" s="176"/>
-      <c r="AV28" s="176"/>
-      <c r="AW28" s="177"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="160"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="161"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
+      <c r="AM28" s="163"/>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="148"/>
+      <c r="AP28" s="148"/>
+      <c r="AQ28" s="148"/>
+      <c r="AR28" s="149"/>
+      <c r="AS28" s="147"/>
+      <c r="AT28" s="148"/>
+      <c r="AU28" s="148"/>
+      <c r="AV28" s="148"/>
+      <c r="AW28" s="149"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
-      <c r="AI29" s="173"/>
-      <c r="AJ29" s="173"/>
-      <c r="AK29" s="173"/>
-      <c r="AL29" s="173"/>
-      <c r="AM29" s="174"/>
-      <c r="AN29" s="175"/>
-      <c r="AO29" s="176"/>
-      <c r="AP29" s="176"/>
-      <c r="AQ29" s="176"/>
-      <c r="AR29" s="177"/>
-      <c r="AS29" s="175"/>
-      <c r="AT29" s="176"/>
-      <c r="AU29" s="176"/>
-      <c r="AV29" s="176"/>
-      <c r="AW29" s="177"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="160"/>
+      <c r="T29" s="160"/>
+      <c r="U29" s="160"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="162"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
+      <c r="AL29" s="162"/>
+      <c r="AM29" s="163"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="148"/>
+      <c r="AP29" s="148"/>
+      <c r="AQ29" s="148"/>
+      <c r="AR29" s="149"/>
+      <c r="AS29" s="147"/>
+      <c r="AT29" s="148"/>
+      <c r="AU29" s="148"/>
+      <c r="AV29" s="148"/>
+      <c r="AW29" s="149"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="173"/>
-      <c r="AJ30" s="173"/>
-      <c r="AK30" s="173"/>
-      <c r="AL30" s="173"/>
-      <c r="AM30" s="174"/>
-      <c r="AN30" s="175"/>
-      <c r="AO30" s="176"/>
-      <c r="AP30" s="176"/>
-      <c r="AQ30" s="176"/>
-      <c r="AR30" s="177"/>
-      <c r="AS30" s="175"/>
-      <c r="AT30" s="176"/>
-      <c r="AU30" s="176"/>
-      <c r="AV30" s="176"/>
-      <c r="AW30" s="177"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="160"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="161"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="162"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="162"/>
+      <c r="AJ30" s="162"/>
+      <c r="AK30" s="162"/>
+      <c r="AL30" s="162"/>
+      <c r="AM30" s="163"/>
+      <c r="AN30" s="147"/>
+      <c r="AO30" s="148"/>
+      <c r="AP30" s="148"/>
+      <c r="AQ30" s="148"/>
+      <c r="AR30" s="149"/>
+      <c r="AS30" s="147"/>
+      <c r="AT30" s="148"/>
+      <c r="AU30" s="148"/>
+      <c r="AV30" s="148"/>
+      <c r="AW30" s="149"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="173"/>
-      <c r="AJ31" s="173"/>
-      <c r="AK31" s="173"/>
-      <c r="AL31" s="173"/>
-      <c r="AM31" s="174"/>
-      <c r="AN31" s="175"/>
-      <c r="AO31" s="176"/>
-      <c r="AP31" s="176"/>
-      <c r="AQ31" s="176"/>
-      <c r="AR31" s="177"/>
-      <c r="AS31" s="175"/>
-      <c r="AT31" s="176"/>
-      <c r="AU31" s="176"/>
-      <c r="AV31" s="176"/>
-      <c r="AW31" s="177"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="160"/>
+      <c r="U31" s="160"/>
+      <c r="V31" s="161"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="162"/>
+      <c r="AJ31" s="162"/>
+      <c r="AK31" s="162"/>
+      <c r="AL31" s="162"/>
+      <c r="AM31" s="163"/>
+      <c r="AN31" s="147"/>
+      <c r="AO31" s="148"/>
+      <c r="AP31" s="148"/>
+      <c r="AQ31" s="148"/>
+      <c r="AR31" s="149"/>
+      <c r="AS31" s="147"/>
+      <c r="AT31" s="148"/>
+      <c r="AU31" s="148"/>
+      <c r="AV31" s="148"/>
+      <c r="AW31" s="149"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="173"/>
-      <c r="AJ32" s="173"/>
-      <c r="AK32" s="173"/>
-      <c r="AL32" s="173"/>
-      <c r="AM32" s="174"/>
-      <c r="AN32" s="175"/>
-      <c r="AO32" s="176"/>
-      <c r="AP32" s="176"/>
-      <c r="AQ32" s="176"/>
-      <c r="AR32" s="177"/>
-      <c r="AS32" s="175"/>
-      <c r="AT32" s="176"/>
-      <c r="AU32" s="176"/>
-      <c r="AV32" s="176"/>
-      <c r="AW32" s="177"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="160"/>
+      <c r="T32" s="160"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="161"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="162"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="162"/>
+      <c r="AJ32" s="162"/>
+      <c r="AK32" s="162"/>
+      <c r="AL32" s="162"/>
+      <c r="AM32" s="163"/>
+      <c r="AN32" s="147"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="149"/>
+      <c r="AS32" s="147"/>
+      <c r="AT32" s="148"/>
+      <c r="AU32" s="148"/>
+      <c r="AV32" s="148"/>
+      <c r="AW32" s="149"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="173"/>
-      <c r="AJ33" s="173"/>
-      <c r="AK33" s="173"/>
-      <c r="AL33" s="173"/>
-      <c r="AM33" s="174"/>
-      <c r="AN33" s="175"/>
-      <c r="AO33" s="176"/>
-      <c r="AP33" s="176"/>
-      <c r="AQ33" s="176"/>
-      <c r="AR33" s="177"/>
-      <c r="AS33" s="175"/>
-      <c r="AT33" s="176"/>
-      <c r="AU33" s="176"/>
-      <c r="AV33" s="176"/>
-      <c r="AW33" s="177"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="160"/>
+      <c r="T33" s="160"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="162"/>
+      <c r="AK33" s="162"/>
+      <c r="AL33" s="162"/>
+      <c r="AM33" s="163"/>
+      <c r="AN33" s="147"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="149"/>
+      <c r="AS33" s="147"/>
+      <c r="AT33" s="148"/>
+      <c r="AU33" s="148"/>
+      <c r="AV33" s="148"/>
+      <c r="AW33" s="149"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="185"/>
-      <c r="P34" s="185"/>
-      <c r="Q34" s="185"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="172"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
-      <c r="AD34" s="173"/>
-      <c r="AE34" s="173"/>
-      <c r="AF34" s="173"/>
-      <c r="AG34" s="173"/>
-      <c r="AH34" s="173"/>
-      <c r="AI34" s="173"/>
-      <c r="AJ34" s="173"/>
-      <c r="AK34" s="173"/>
-      <c r="AL34" s="173"/>
-      <c r="AM34" s="174"/>
-      <c r="AN34" s="175"/>
-      <c r="AO34" s="176"/>
-      <c r="AP34" s="176"/>
-      <c r="AQ34" s="176"/>
-      <c r="AR34" s="177"/>
-      <c r="AS34" s="175"/>
-      <c r="AT34" s="176"/>
-      <c r="AU34" s="176"/>
-      <c r="AV34" s="176"/>
-      <c r="AW34" s="177"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="160"/>
+      <c r="T34" s="160"/>
+      <c r="U34" s="160"/>
+      <c r="V34" s="161"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="162"/>
+      <c r="AG34" s="162"/>
+      <c r="AH34" s="162"/>
+      <c r="AI34" s="162"/>
+      <c r="AJ34" s="162"/>
+      <c r="AK34" s="162"/>
+      <c r="AL34" s="162"/>
+      <c r="AM34" s="163"/>
+      <c r="AN34" s="147"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="148"/>
+      <c r="AR34" s="149"/>
+      <c r="AS34" s="147"/>
+      <c r="AT34" s="148"/>
+      <c r="AU34" s="148"/>
+      <c r="AV34" s="148"/>
+      <c r="AW34" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7030,239 +7263,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7272,7 +7272,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN48"/>
@@ -7394,14 +7394,14 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="81" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="S2" s="82"/>
       <c r="T2" s="82"/>
       <c r="U2" s="82"/>
       <c r="V2" s="83"/>
       <c r="W2" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
@@ -7422,11 +7422,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="193"/>
-      <c r="AP2" s="194"/>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="195"/>
+      <c r="AO2" s="191"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="192"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="193"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7435,14 +7435,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="196"/>
-      <c r="BA2" s="197"/>
-      <c r="BB2" s="197"/>
-      <c r="BC2" s="197"/>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="197"/>
-      <c r="BG2" s="198"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="196"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -8507,7 +8507,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -8523,7 +8523,7 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF33" s="78"/>
       <c r="AG33" s="78"/>
@@ -8554,7 +8554,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -8570,7 +8570,7 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
@@ -8603,7 +8603,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -8619,7 +8619,7 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
@@ -8971,12 +8971,12 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="187">
+      <c r="B42" s="201">
         <v>1</v>
       </c>
-      <c r="C42" s="188"/>
+      <c r="C42" s="202"/>
       <c r="D42" s="69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -9006,18 +9006,18 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="191" t="s">
+      <c r="AE42" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="192"/>
-      <c r="AG42" s="191"/>
-      <c r="AH42" s="192"/>
-      <c r="AI42" s="191"/>
-      <c r="AJ42" s="192"/>
-      <c r="AK42" s="191"/>
-      <c r="AL42" s="192"/>
+      <c r="AF42" s="198"/>
+      <c r="AG42" s="197"/>
+      <c r="AH42" s="198"/>
+      <c r="AI42" s="197"/>
+      <c r="AJ42" s="198"/>
+      <c r="AK42" s="197"/>
+      <c r="AL42" s="198"/>
       <c r="AM42" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN42" s="71"/>
       <c r="AO42" s="71"/>
@@ -9049,12 +9049,12 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="122"/>
-      <c r="B43" s="189">
+      <c r="B43" s="187">
         <v>2</v>
       </c>
-      <c r="C43" s="190"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="124"/>
       <c r="F43" s="124"/>
@@ -9063,7 +9063,7 @@
       <c r="I43" s="124"/>
       <c r="J43" s="125"/>
       <c r="K43" s="123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L43" s="124"/>
       <c r="M43" s="124"/>
@@ -9084,18 +9084,18 @@
       <c r="AB43" s="124"/>
       <c r="AC43" s="124"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="201" t="s">
+      <c r="AE43" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="202"/>
-      <c r="AG43" s="201"/>
-      <c r="AH43" s="202"/>
-      <c r="AI43" s="201"/>
-      <c r="AJ43" s="202"/>
-      <c r="AK43" s="201"/>
-      <c r="AL43" s="202"/>
+      <c r="AF43" s="190"/>
+      <c r="AG43" s="189"/>
+      <c r="AH43" s="190"/>
+      <c r="AI43" s="189"/>
+      <c r="AJ43" s="190"/>
+      <c r="AK43" s="189"/>
+      <c r="AL43" s="190"/>
       <c r="AM43" s="126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AN43" s="127"/>
       <c r="AO43" s="127"/>
@@ -9119,12 +9119,12 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="187">
+      <c r="B44" s="201">
         <v>3</v>
       </c>
-      <c r="C44" s="188"/>
+      <c r="C44" s="202"/>
       <c r="D44" s="99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
@@ -9133,7 +9133,7 @@
       <c r="I44" s="73"/>
       <c r="J44" s="100"/>
       <c r="K44" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L44" s="73"/>
       <c r="M44" s="73"/>
@@ -9154,18 +9154,18 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="191" t="s">
+      <c r="AE44" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="192"/>
-      <c r="AG44" s="191"/>
-      <c r="AH44" s="192"/>
-      <c r="AI44" s="191"/>
-      <c r="AJ44" s="192"/>
-      <c r="AK44" s="191"/>
-      <c r="AL44" s="192"/>
+      <c r="AF44" s="198"/>
+      <c r="AG44" s="197"/>
+      <c r="AH44" s="198"/>
+      <c r="AI44" s="197"/>
+      <c r="AJ44" s="198"/>
+      <c r="AK44" s="197"/>
+      <c r="AL44" s="198"/>
       <c r="AM44" s="70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN44" s="71"/>
       <c r="AO44" s="71"/>
@@ -9197,12 +9197,12 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="189">
+      <c r="B45" s="187">
         <v>4</v>
       </c>
-      <c r="C45" s="190"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
@@ -9211,7 +9211,7 @@
       <c r="I45" s="73"/>
       <c r="J45" s="104"/>
       <c r="K45" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L45" s="73"/>
       <c r="M45" s="73"/>
@@ -9232,18 +9232,18 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="104"/>
-      <c r="AE45" s="191"/>
-      <c r="AF45" s="192"/>
-      <c r="AG45" s="191"/>
-      <c r="AH45" s="192"/>
-      <c r="AI45" s="191" t="s">
+      <c r="AE45" s="197"/>
+      <c r="AF45" s="198"/>
+      <c r="AG45" s="197"/>
+      <c r="AH45" s="198"/>
+      <c r="AI45" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="192"/>
-      <c r="AK45" s="191"/>
-      <c r="AL45" s="192"/>
+      <c r="AJ45" s="198"/>
+      <c r="AK45" s="197"/>
+      <c r="AL45" s="198"/>
       <c r="AM45" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN45" s="71"/>
       <c r="AO45" s="71"/>
@@ -9275,12 +9275,12 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="187">
+      <c r="B46" s="201">
         <v>5</v>
       </c>
-      <c r="C46" s="188"/>
+      <c r="C46" s="202"/>
       <c r="D46" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
@@ -9289,7 +9289,7 @@
       <c r="I46" s="73"/>
       <c r="J46" s="100"/>
       <c r="K46" s="99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L46" s="73"/>
       <c r="M46" s="73"/>
@@ -9310,18 +9310,18 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="191" t="s">
+      <c r="AE46" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="192"/>
-      <c r="AG46" s="191"/>
-      <c r="AH46" s="192"/>
-      <c r="AI46" s="191"/>
-      <c r="AJ46" s="192"/>
-      <c r="AK46" s="191"/>
-      <c r="AL46" s="192"/>
+      <c r="AF46" s="198"/>
+      <c r="AG46" s="197"/>
+      <c r="AH46" s="198"/>
+      <c r="AI46" s="197"/>
+      <c r="AJ46" s="198"/>
+      <c r="AK46" s="197"/>
+      <c r="AL46" s="198"/>
       <c r="AM46" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN46" s="71"/>
       <c r="AO46" s="71"/>
@@ -9353,12 +9353,12 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="189">
+      <c r="B47" s="187">
         <v>6</v>
       </c>
-      <c r="C47" s="190"/>
+      <c r="C47" s="188"/>
       <c r="D47" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -9367,7 +9367,7 @@
       <c r="I47" s="73"/>
       <c r="J47" s="100"/>
       <c r="K47" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L47" s="73"/>
       <c r="M47" s="73"/>
@@ -9388,18 +9388,18 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="191"/>
-      <c r="AF47" s="192"/>
-      <c r="AG47" s="191" t="s">
+      <c r="AE47" s="197"/>
+      <c r="AF47" s="198"/>
+      <c r="AG47" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="192"/>
-      <c r="AI47" s="191"/>
-      <c r="AJ47" s="192"/>
-      <c r="AK47" s="191"/>
-      <c r="AL47" s="192"/>
+      <c r="AH47" s="198"/>
+      <c r="AI47" s="197"/>
+      <c r="AJ47" s="198"/>
+      <c r="AK47" s="197"/>
+      <c r="AL47" s="198"/>
       <c r="AM47" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN47" s="71"/>
       <c r="AO47" s="71"/>
@@ -9436,11 +9436,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9449,26 +9464,11 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9614,7 +9614,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="196" t="str">
+      <c r="CU1" s="194" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="81" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K20</v>
+        <v>K-20</v>
       </c>
       <c r="AI2" s="82"/>
       <c r="AJ2" s="82"/>
@@ -9745,7 +9745,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="196"/>
+      <c r="CU2" s="194"/>
       <c r="CV2" s="203"/>
       <c r="CW2" s="203"/>
       <c r="CX2" s="203"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="F2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K20</v>
+        <v>K-20</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>'１．機能概要'!W2</f>
@@ -9961,22 +9961,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="180" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="212" t="s">
@@ -9985,13 +9985,13 @@
       <c r="J6" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="149" t="s">
+      <c r="K6" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="149" t="s">
+      <c r="L6" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="149" t="s">
+      <c r="M6" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -10006,17 +10006,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
       <c r="I7" s="212"/>
       <c r="J7" s="212"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -10038,10 +10038,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>39</v>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -10085,10 +10085,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>39</v>
@@ -10121,7 +10121,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10131,13 +10131,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>39</v>
@@ -10170,7 +10170,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -10180,13 +10180,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>91</v>
@@ -10219,7 +10219,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -10235,22 +10235,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="D14" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="H14" s="180" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="213" t="s">
@@ -10259,13 +10259,13 @@
       <c r="J14" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="149" t="s">
+      <c r="K14" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="L14" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="M14" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -10280,17 +10280,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
       <c r="I15" s="214"/>
       <c r="J15" s="212"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10312,13 +10312,13 @@
         <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>42</v>
@@ -10333,13 +10333,13 @@
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="119" t="s">
         <v>101</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>34</v>
@@ -10358,13 +10358,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>92</v>
@@ -10382,22 +10382,22 @@
         <v>63</v>
       </c>
       <c r="L17" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M17" s="119" t="s">
         <v>101</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -10407,13 +10407,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="118" t="s">
         <v>92</v>
@@ -10431,10 +10431,10 @@
         <v>63</v>
       </c>
       <c r="L18" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M18" s="120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>34</v>
@@ -10443,10 +10443,10 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10471,28 +10471,28 @@
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="G21" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="H21" s="180" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="212" t="s">
@@ -10501,13 +10501,13 @@
       <c r="J21" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="149" t="s">
+      <c r="K21" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="149" t="s">
+      <c r="L21" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="180" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10522,17 +10522,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
       <c r="I22" s="212"/>
       <c r="J22" s="212"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10551,19 +10551,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>93</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I23" s="101">
         <v>25</v>
@@ -10587,10 +10587,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
@@ -10600,13 +10600,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G24" s="118" t="s">
         <v>92</v>
@@ -10621,10 +10621,10 @@
         <v>35</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>101</v>
@@ -10639,7 +10639,7 @@
         <v>35</v>
       </c>
       <c r="Q24" s="120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10649,13 +10649,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" s="119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>92</v>
@@ -10679,16 +10679,16 @@
         <v>101</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P25" s="116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10698,13 +10698,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F26" s="119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>93</v>
@@ -10737,7 +10737,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10747,13 +10747,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>92</v>
@@ -10777,16 +10777,16 @@
         <v>101</v>
       </c>
       <c r="N27" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P27" s="120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10796,13 +10796,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>93</v>
@@ -10823,7 +10823,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>35</v>
@@ -10835,35 +10835,11 @@
         <v>35</v>
       </c>
       <c r="Q28" s="120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10876,6 +10852,30 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10888,7 +10888,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ92"/>
@@ -10949,7 +10949,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="193">
+      <c r="AI1" s="191">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -10965,7 +10965,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="196" t="str">
+      <c r="AT1" s="194" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K20</v>
+        <v>K-20</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -11036,7 +11036,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="196"/>
+      <c r="AT2" s="194"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -11378,20 +11378,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -11438,7 +11438,7 @@
         <v>78</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV12" s="61"/>
     </row>
@@ -11448,7 +11448,7 @@
       <c r="F13" s="61"/>
       <c r="G13" s="60"/>
       <c r="L13" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV13" s="61"/>
     </row>
@@ -11467,7 +11467,7 @@
       <c r="G15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N15" s="110"/>
       <c r="O15" s="110"/>
@@ -11488,7 +11488,7 @@
       <c r="G16" s="60"/>
       <c r="L16" s="60"/>
       <c r="N16" s="110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O16" s="110"/>
       <c r="P16" s="110"/>
@@ -11508,7 +11508,7 @@
       <c r="G17" s="60"/>
       <c r="L17" s="60"/>
       <c r="N17" s="110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O17" s="110"/>
       <c r="P17" s="110"/>
@@ -11528,7 +11528,7 @@
       <c r="G18" s="60"/>
       <c r="L18" s="60"/>
       <c r="N18" s="110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
@@ -11548,7 +11548,7 @@
       <c r="G19" s="60"/>
       <c r="L19" s="60"/>
       <c r="N19" s="110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O19" s="110"/>
       <c r="P19" s="110"/>
@@ -11568,7 +11568,7 @@
       <c r="G20" s="60"/>
       <c r="L20" s="60"/>
       <c r="N20" s="110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O20" s="110"/>
       <c r="P20" s="110"/>
@@ -11588,7 +11588,7 @@
       <c r="G21" s="60"/>
       <c r="L21" s="60"/>
       <c r="N21" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O21" s="110"/>
       <c r="P21" s="110"/>
@@ -11627,7 +11627,7 @@
       <c r="G23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N23" s="110"/>
       <c r="O23" s="110"/>
@@ -11648,7 +11648,7 @@
       <c r="G24" s="60"/>
       <c r="L24" s="60"/>
       <c r="N24" s="110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O24" s="110"/>
       <c r="P24" s="110"/>
@@ -11668,7 +11668,7 @@
       <c r="G25" s="60"/>
       <c r="L25" s="60"/>
       <c r="N25" s="110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="110"/>
@@ -11689,7 +11689,7 @@
       <c r="L26" s="60"/>
       <c r="N26" s="110"/>
       <c r="O26" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P26" s="110"/>
       <c r="Q26" s="110"/>
@@ -11699,10 +11699,10 @@
       <c r="U26" s="110"/>
       <c r="V26" s="110"/>
       <c r="W26" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AV26" s="61"/>
     </row>
@@ -11714,7 +11714,7 @@
       <c r="L27" s="60"/>
       <c r="N27" s="110"/>
       <c r="O27" s="110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P27" s="110"/>
       <c r="Q27" s="110"/>
@@ -11724,10 +11724,10 @@
       <c r="U27" s="110"/>
       <c r="V27" s="110"/>
       <c r="W27" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AV27" s="61"/>
     </row>
@@ -11739,7 +11739,7 @@
       <c r="L28" s="60"/>
       <c r="N28" s="110"/>
       <c r="O28" s="110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P28" s="110"/>
       <c r="Q28" s="110"/>
@@ -11749,10 +11749,10 @@
       <c r="U28" s="110"/>
       <c r="V28" s="110"/>
       <c r="W28" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV28" s="61"/>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="L29" s="60"/>
       <c r="N29" s="110"/>
       <c r="O29" s="110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P29" s="110"/>
       <c r="Q29" s="110"/>
@@ -11774,10 +11774,10 @@
       <c r="U29" s="110"/>
       <c r="V29" s="110"/>
       <c r="W29" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AV29" s="61"/>
     </row>
@@ -11789,7 +11789,7 @@
       <c r="L30" s="60"/>
       <c r="N30" s="110"/>
       <c r="O30" s="110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P30" s="110"/>
       <c r="Q30" s="110"/>
@@ -11799,10 +11799,10 @@
       <c r="U30" s="110"/>
       <c r="V30" s="110"/>
       <c r="W30" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AV30" s="61"/>
     </row>
@@ -11831,7 +11831,7 @@
       <c r="G32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N32" s="110"/>
       <c r="O32" s="110"/>
@@ -11852,7 +11852,7 @@
       <c r="G33" s="60"/>
       <c r="L33" s="60"/>
       <c r="N33" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
@@ -11863,10 +11863,10 @@
       <c r="U33" s="110"/>
       <c r="V33" s="110"/>
       <c r="W33" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="X33" s="115" t="s">
         <v>196</v>
-      </c>
-      <c r="X33" s="115" t="s">
-        <v>197</v>
       </c>
       <c r="Y33" s="110"/>
       <c r="Z33" s="110"/>
@@ -11879,7 +11879,7 @@
       <c r="G34" s="60"/>
       <c r="L34" s="60"/>
       <c r="N34" s="110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O34" s="110"/>
       <c r="P34" s="110"/>
@@ -11890,15 +11890,15 @@
       <c r="U34" s="110"/>
       <c r="V34" s="110"/>
       <c r="W34" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X34" s="115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y34" s="110"/>
       <c r="Z34" s="110"/>
       <c r="AJ34" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV34" s="61"/>
     </row>
@@ -11909,7 +11909,7 @@
       <c r="G35" s="60"/>
       <c r="L35" s="60"/>
       <c r="N35" s="110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O35" s="110"/>
       <c r="P35" s="110"/>
@@ -11919,15 +11919,15 @@
       <c r="T35" s="110"/>
       <c r="U35" s="110"/>
       <c r="W35" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X35" s="115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y35" s="110"/>
       <c r="Z35" s="110"/>
       <c r="AJ35" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV35" s="61"/>
     </row>
@@ -11938,7 +11938,7 @@
       <c r="G36" s="60"/>
       <c r="L36" s="60"/>
       <c r="N36" s="110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O36" s="110"/>
       <c r="P36" s="110"/>
@@ -11949,14 +11949,14 @@
       <c r="U36" s="110"/>
       <c r="V36" s="110"/>
       <c r="W36" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X36" s="115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y36" s="110"/>
       <c r="AJ36" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV36" s="61"/>
     </row>
@@ -11987,7 +11987,7 @@
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
       <c r="L38" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M38" s="110"/>
       <c r="N38" s="110"/>
@@ -12027,7 +12027,7 @@
       <c r="F39" s="61"/>
       <c r="G39" s="60"/>
       <c r="L39" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M39" s="110"/>
       <c r="N39" s="110"/>
@@ -12102,20 +12102,20 @@
         <v>3</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
       <c r="L41" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="K42" s="61"/>
       <c r="L42" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -12253,7 +12253,7 @@
       <c r="G44" s="60"/>
       <c r="K44" s="61"/>
       <c r="L44" s="111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M44" s="98"/>
       <c r="N44" s="98"/>
@@ -12344,7 +12344,7 @@
       <c r="K46" s="61"/>
       <c r="L46" s="111"/>
       <c r="M46" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N46" s="98"/>
       <c r="O46" s="98"/>
@@ -12389,7 +12389,7 @@
       <c r="L47" s="111"/>
       <c r="M47" s="98"/>
       <c r="N47" s="98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="98"/>
       <c r="P47" s="98"/>
@@ -12432,7 +12432,7 @@
       <c r="K48" s="61"/>
       <c r="L48" s="111"/>
       <c r="M48" s="98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N48" s="98"/>
       <c r="O48" s="98"/>
@@ -12476,7 +12476,7 @@
       <c r="L49" s="109"/>
       <c r="M49" s="22"/>
       <c r="N49" s="98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="98"/>
       <c r="P49" s="98"/>
@@ -12484,7 +12484,7 @@
       <c r="R49" s="98"/>
       <c r="S49" s="98"/>
       <c r="T49" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U49" s="98"/>
       <c r="V49" s="112"/>
@@ -12522,7 +12522,7 @@
       <c r="L50" s="111"/>
       <c r="M50" s="98"/>
       <c r="N50" s="98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="98"/>
       <c r="P50" s="98"/>
@@ -12530,7 +12530,7 @@
       <c r="R50" s="98"/>
       <c r="S50" s="98"/>
       <c r="T50" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U50" s="98"/>
       <c r="V50" s="98"/>
@@ -12567,7 +12567,7 @@
       <c r="L51" s="109"/>
       <c r="M51" s="22"/>
       <c r="N51" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O51" s="98"/>
       <c r="P51" s="98"/>
@@ -12575,7 +12575,7 @@
       <c r="R51" s="98"/>
       <c r="S51" s="98"/>
       <c r="T51" s="98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U51" s="98"/>
       <c r="V51" s="112"/>
@@ -12612,7 +12612,7 @@
       <c r="L52" s="109"/>
       <c r="M52" s="22"/>
       <c r="N52" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O52" s="98"/>
       <c r="P52" s="98"/>
@@ -12620,7 +12620,7 @@
       <c r="R52" s="98"/>
       <c r="S52" s="98"/>
       <c r="T52" s="98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U52" s="98"/>
       <c r="V52" s="112"/>
@@ -12657,7 +12657,7 @@
       <c r="L53" s="109"/>
       <c r="M53" s="22"/>
       <c r="N53" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O53" s="98"/>
       <c r="P53" s="98"/>
@@ -12665,7 +12665,7 @@
       <c r="R53" s="98"/>
       <c r="S53" s="98"/>
       <c r="T53" s="98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U53" s="98"/>
       <c r="V53" s="112"/>
@@ -12702,7 +12702,7 @@
       <c r="L54" s="109"/>
       <c r="M54" s="22"/>
       <c r="N54" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O54" s="98"/>
       <c r="P54" s="98"/>
@@ -12710,7 +12710,7 @@
       <c r="R54" s="98"/>
       <c r="S54" s="98"/>
       <c r="T54" s="98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U54" s="98"/>
       <c r="V54" s="112"/>
@@ -12747,7 +12747,7 @@
       <c r="L55" s="109"/>
       <c r="M55" s="22"/>
       <c r="N55" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O55" s="98"/>
       <c r="P55" s="98"/>
@@ -12755,7 +12755,7 @@
       <c r="R55" s="98"/>
       <c r="S55" s="98"/>
       <c r="T55" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U55" s="98"/>
       <c r="V55" s="112"/>
@@ -12792,7 +12792,7 @@
       <c r="L56" s="109"/>
       <c r="M56" s="22"/>
       <c r="N56" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98"/>
@@ -12800,7 +12800,7 @@
       <c r="R56" s="98"/>
       <c r="S56" s="98"/>
       <c r="T56" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U56" s="98"/>
       <c r="V56" s="98"/>
@@ -12838,7 +12838,7 @@
       <c r="L57" s="111"/>
       <c r="M57" s="98"/>
       <c r="N57" s="98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O57" s="98"/>
       <c r="P57" s="98"/>
@@ -12846,7 +12846,7 @@
       <c r="R57" s="98"/>
       <c r="S57" s="98"/>
       <c r="T57" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U57" s="98"/>
       <c r="V57" s="98"/>
@@ -12884,7 +12884,7 @@
       <c r="L58" s="111"/>
       <c r="M58" s="98"/>
       <c r="N58" s="98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O58" s="98"/>
       <c r="P58" s="98"/>
@@ -12892,7 +12892,7 @@
       <c r="R58" s="98"/>
       <c r="S58" s="98"/>
       <c r="T58" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U58" s="98"/>
       <c r="V58" s="98"/>
@@ -12930,7 +12930,7 @@
       <c r="L59" s="111"/>
       <c r="M59" s="98"/>
       <c r="N59" s="98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O59" s="98"/>
       <c r="P59" s="98"/>
@@ -12938,7 +12938,7 @@
       <c r="R59" s="98"/>
       <c r="S59" s="98"/>
       <c r="T59" s="117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U59" s="98"/>
       <c r="V59" s="98"/>
@@ -12976,7 +12976,7 @@
       <c r="L60" s="111"/>
       <c r="M60" s="98"/>
       <c r="N60" s="98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -12984,7 +12984,7 @@
       <c r="R60" s="98"/>
       <c r="S60" s="98"/>
       <c r="T60" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U60" s="98"/>
       <c r="V60" s="98"/>
@@ -13022,7 +13022,7 @@
       <c r="L61" s="111"/>
       <c r="M61" s="98"/>
       <c r="N61" s="98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O61" s="98"/>
       <c r="P61" s="98"/>
@@ -13030,7 +13030,7 @@
       <c r="R61" s="98"/>
       <c r="S61" s="98"/>
       <c r="T61" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U61" s="98"/>
       <c r="V61" s="98"/>
@@ -13068,7 +13068,7 @@
       <c r="L62" s="111"/>
       <c r="M62" s="98"/>
       <c r="N62" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O62" s="98"/>
       <c r="P62" s="98"/>
@@ -13076,7 +13076,7 @@
       <c r="R62" s="98"/>
       <c r="S62" s="98"/>
       <c r="T62" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U62" s="98"/>
       <c r="V62" s="98"/>
@@ -13113,7 +13113,7 @@
       <c r="K63" s="61"/>
       <c r="L63" s="111"/>
       <c r="M63" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N63" s="98"/>
       <c r="O63" s="98"/>
@@ -13158,7 +13158,7 @@
       <c r="L64" s="111"/>
       <c r="M64" s="98"/>
       <c r="N64" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O64" s="98"/>
       <c r="P64" s="98"/>
@@ -13244,7 +13244,7 @@
       <c r="G66" s="60"/>
       <c r="K66" s="61"/>
       <c r="L66" s="95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M66" s="96"/>
       <c r="N66" s="96"/>
@@ -13291,7 +13291,7 @@
       <c r="K67" s="61"/>
       <c r="L67" s="111"/>
       <c r="M67" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N67" s="98"/>
       <c r="O67" s="98"/>
@@ -13338,7 +13338,7 @@
       <c r="L68" s="111"/>
       <c r="M68" s="98"/>
       <c r="N68" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O68" s="98"/>
       <c r="P68" s="98"/>
@@ -13383,7 +13383,7 @@
       <c r="K69" s="61"/>
       <c r="L69" s="111"/>
       <c r="M69" s="98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N69" s="98"/>
       <c r="O69" s="98"/>
@@ -13430,18 +13430,18 @@
       <c r="L70" s="111"/>
       <c r="M70" s="98"/>
       <c r="N70" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T70" s="22"/>
       <c r="U70" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
@@ -13480,18 +13480,18 @@
       <c r="L71" s="111"/>
       <c r="M71" s="98"/>
       <c r="N71" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T71" s="22"/>
       <c r="U71" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
@@ -13530,18 +13530,18 @@
       <c r="L72" s="111"/>
       <c r="M72" s="98"/>
       <c r="N72" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T72" s="22"/>
       <c r="U72" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
@@ -13579,7 +13579,7 @@
       <c r="K73" s="61"/>
       <c r="L73" s="111"/>
       <c r="M73" s="98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N73" s="98"/>
       <c r="O73" s="98"/>
@@ -13626,18 +13626,18 @@
       <c r="L74" s="111"/>
       <c r="M74" s="98"/>
       <c r="N74" s="98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O74" s="98"/>
       <c r="P74" s="98"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T74" s="98"/>
       <c r="U74" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V74" s="98"/>
       <c r="W74" s="98"/>
@@ -13676,18 +13676,18 @@
       <c r="L75" s="111"/>
       <c r="M75" s="98"/>
       <c r="N75" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O75" s="98"/>
       <c r="P75" s="98"/>
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T75" s="98"/>
       <c r="U75" s="98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V75" s="98"/>
       <c r="W75" s="98"/>
@@ -13726,18 +13726,18 @@
       <c r="L76" s="111"/>
       <c r="M76" s="98"/>
       <c r="N76" s="98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O76" s="98"/>
       <c r="P76" s="98"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T76" s="98"/>
       <c r="U76" s="98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V76" s="98"/>
       <c r="W76" s="98"/>
@@ -13776,18 +13776,18 @@
       <c r="L77" s="111"/>
       <c r="M77" s="98"/>
       <c r="N77" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O77" s="98"/>
       <c r="P77" s="98"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T77" s="98"/>
       <c r="U77" s="98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V77" s="98"/>
       <c r="W77" s="98"/>
@@ -13826,18 +13826,18 @@
       <c r="L78" s="111"/>
       <c r="M78" s="98"/>
       <c r="N78" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O78" s="98"/>
       <c r="P78" s="98"/>
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T78" s="98"/>
       <c r="U78" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V78" s="98"/>
       <c r="W78" s="98"/>
@@ -13876,18 +13876,18 @@
       <c r="L79" s="111"/>
       <c r="M79" s="98"/>
       <c r="N79" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O79" s="98"/>
       <c r="P79" s="98"/>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T79" s="98"/>
       <c r="U79" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V79" s="98"/>
       <c r="W79" s="98"/>
@@ -13969,7 +13969,7 @@
       <c r="K81" s="61"/>
       <c r="L81" s="111"/>
       <c r="M81" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -14058,7 +14058,7 @@
       <c r="G83" s="60"/>
       <c r="K83" s="61"/>
       <c r="L83" s="111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M83" s="98"/>
       <c r="N83" s="98"/>
@@ -14105,7 +14105,7 @@
       <c r="K84" s="61"/>
       <c r="L84" s="111"/>
       <c r="M84" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N84" s="98"/>
       <c r="O84" s="98"/>
@@ -14197,20 +14197,20 @@
         <v>4</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="21"/>
       <c r="G86" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
       <c r="L86" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
@@ -14487,7 +14487,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ96"/>
@@ -14548,7 +14548,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="193">
+      <c r="AI1" s="191">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="196" t="str">
+      <c r="AT1" s="194" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -14595,7 +14595,7 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K20</v>
+        <v>K-20</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -14635,7 +14635,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="196"/>
+      <c r="AT2" s="194"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -14978,7 +14978,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
@@ -15001,7 +15001,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -15207,7 +15207,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="61"/>
       <c r="J13" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -15221,7 +15221,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="217" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U13" s="218"/>
       <c r="V13" s="218"/>
@@ -15233,7 +15233,7 @@
       <c r="AB13" s="218"/>
       <c r="AC13" s="219"/>
       <c r="AD13" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE13" s="63"/>
       <c r="AF13" s="63"/>
@@ -15317,7 +15317,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="61"/>
       <c r="J15" s="129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" s="130"/>
       <c r="L15" s="130"/>
@@ -15331,7 +15331,7 @@
       <c r="R15" s="133"/>
       <c r="S15" s="134"/>
       <c r="T15" s="135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
@@ -15343,7 +15343,7 @@
       <c r="AB15" s="135"/>
       <c r="AC15" s="135"/>
       <c r="AD15" s="132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE15" s="133"/>
       <c r="AF15" s="133"/>
@@ -15427,7 +15427,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="61"/>
       <c r="J17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -15441,7 +15441,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="217" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U17" s="218"/>
       <c r="V17" s="218"/>
@@ -15453,7 +15453,7 @@
       <c r="AB17" s="218"/>
       <c r="AC17" s="219"/>
       <c r="AD17" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE17" s="63"/>
       <c r="AF17" s="63"/>
@@ -15537,7 +15537,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="61"/>
       <c r="J19" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -15551,7 +15551,7 @@
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
       <c r="T19" s="217" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U19" s="218"/>
       <c r="V19" s="218"/>
@@ -15563,7 +15563,7 @@
       <c r="AB19" s="218"/>
       <c r="AC19" s="219"/>
       <c r="AD19" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE19" s="63"/>
       <c r="AF19" s="63"/>
@@ -15647,7 +15647,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="61"/>
       <c r="J21" s="129" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" s="130"/>
       <c r="L21" s="130"/>
@@ -15656,12 +15656,12 @@
       <c r="O21" s="130"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R21" s="133"/>
       <c r="S21" s="134"/>
       <c r="T21" s="135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U21" s="135"/>
       <c r="V21" s="135"/>
@@ -15673,7 +15673,7 @@
       <c r="AB21" s="135"/>
       <c r="AC21" s="135"/>
       <c r="AD21" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE21" s="133"/>
       <c r="AF21" s="133"/>
@@ -15771,7 +15771,7 @@
       <c r="R23" s="63"/>
       <c r="S23" s="64"/>
       <c r="T23" s="108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U23" s="108"/>
       <c r="V23" s="108"/>
@@ -19745,13 +19745,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="T19:AC20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="T17:AC18"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19762,6 +19755,13 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="T19:AC20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="T17:AC18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19774,7 +19774,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ208"/>
@@ -19835,7 +19835,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="193">
+      <c r="AI1" s="191">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -19851,7 +19851,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="196" t="str">
+      <c r="AT1" s="194" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -19882,7 +19882,7 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K20</v>
+        <v>K-20</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -19922,7 +19922,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="196"/>
+      <c r="AT2" s="194"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -20208,7 +20208,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -31078,9 +31078,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31242,19 +31245,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31278,9 +31277,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K20_その他出庫.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C61C84-237C-455E-9BC6-13B39AA2472F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495528A-8EF0-40DE-BD0C-C40F1BCD3B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3261,91 +3261,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3373,16 +3288,107 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3403,23 +3409,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5250,1779 +5250,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="178"/>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="178"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="148"/>
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="181" t="s">
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="180" t="s">
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180" t="s">
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180" t="s">
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="149"/>
+      <c r="AJ3" s="149"/>
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="180"/>
-      <c r="AP3" s="180"/>
-      <c r="AQ3" s="180"/>
-      <c r="AR3" s="180"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AO3" s="149"/>
+      <c r="AP3" s="149"/>
+      <c r="AQ3" s="149"/>
+      <c r="AR3" s="149"/>
+      <c r="AS3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="180"/>
+      <c r="AT3" s="149"/>
+      <c r="AU3" s="149"/>
+      <c r="AV3" s="149"/>
+      <c r="AW3" s="149"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="180"/>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="149"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
+      <c r="AU4" s="149"/>
+      <c r="AV4" s="149"/>
+      <c r="AW4" s="149"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="172">
+      <c r="B5" s="157">
         <v>1</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="153">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158">
         <v>43714</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154" t="s">
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="154" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="160" t="s">
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="171" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="171"/>
-      <c r="AN5" s="160" t="s">
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="171"/>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="160"/>
-      <c r="AT6" s="160"/>
-      <c r="AU6" s="160"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="160"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="171"/>
-      <c r="AM7" s="171"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
-      <c r="AU7" s="160"/>
-      <c r="AV7" s="160"/>
-      <c r="AW7" s="160"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="171"/>
-      <c r="AH8" s="171"/>
-      <c r="AI8" s="171"/>
-      <c r="AJ8" s="171"/>
-      <c r="AK8" s="171"/>
-      <c r="AL8" s="171"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="160"/>
-      <c r="AS8" s="160"/>
-      <c r="AT8" s="160"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="165"/>
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="171"/>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="171"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="171"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="171"/>
-      <c r="AL9" s="171"/>
-      <c r="AM9" s="171"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="171"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="171"/>
-      <c r="AB10" s="171"/>
-      <c r="AC10" s="171"/>
-      <c r="AD10" s="171"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="171"/>
-      <c r="AG10" s="171"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="171"/>
-      <c r="AJ10" s="171"/>
-      <c r="AK10" s="171"/>
-      <c r="AL10" s="171"/>
-      <c r="AM10" s="171"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="160"/>
-      <c r="AP10" s="160"/>
-      <c r="AQ10" s="160"/>
-      <c r="AR10" s="160"/>
-      <c r="AS10" s="160"/>
-      <c r="AT10" s="160"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="160"/>
-      <c r="AW10" s="160"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="165"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="165"/>
+      <c r="AJ10" s="165"/>
+      <c r="AK10" s="165"/>
+      <c r="AL10" s="165"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="160"/>
-      <c r="AP11" s="160"/>
-      <c r="AQ11" s="160"/>
-      <c r="AR11" s="160"/>
-      <c r="AS11" s="160"/>
-      <c r="AT11" s="160"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="160"/>
-      <c r="AW11" s="160"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="178"/>
+      <c r="AH11" s="178"/>
+      <c r="AI11" s="178"/>
+      <c r="AJ11" s="178"/>
+      <c r="AK11" s="178"/>
+      <c r="AL11" s="178"/>
+      <c r="AM11" s="179"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="147"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="148"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="147"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="149"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="173"/>
+      <c r="AL12" s="173"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="176"/>
+      <c r="AP12" s="176"/>
+      <c r="AQ12" s="176"/>
+      <c r="AR12" s="177"/>
+      <c r="AS12" s="175"/>
+      <c r="AT12" s="176"/>
+      <c r="AU12" s="176"/>
+      <c r="AV12" s="176"/>
+      <c r="AW12" s="177"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="163"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="149"/>
-      <c r="AS13" s="147"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="149"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="176"/>
+      <c r="AP13" s="176"/>
+      <c r="AQ13" s="176"/>
+      <c r="AR13" s="177"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="176"/>
+      <c r="AU13" s="176"/>
+      <c r="AV13" s="176"/>
+      <c r="AW13" s="177"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="171"/>
-      <c r="AA14" s="171"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="171"/>
-      <c r="AD14" s="171"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="171"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="171"/>
-      <c r="AI14" s="171"/>
-      <c r="AJ14" s="171"/>
-      <c r="AK14" s="171"/>
-      <c r="AL14" s="171"/>
-      <c r="AM14" s="171"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="160"/>
-      <c r="AP14" s="160"/>
-      <c r="AQ14" s="160"/>
-      <c r="AR14" s="160"/>
-      <c r="AS14" s="147"/>
-      <c r="AT14" s="148"/>
-      <c r="AU14" s="148"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="149"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="165"/>
+      <c r="X14" s="165"/>
+      <c r="Y14" s="165"/>
+      <c r="Z14" s="165"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="165"/>
+      <c r="AK14" s="165"/>
+      <c r="AL14" s="165"/>
+      <c r="AM14" s="165"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="175"/>
+      <c r="AT14" s="176"/>
+      <c r="AU14" s="176"/>
+      <c r="AV14" s="176"/>
+      <c r="AW14" s="177"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="147"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="149"/>
-      <c r="AS15" s="147"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="149"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="173"/>
+      <c r="AL15" s="173"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="176"/>
+      <c r="AP15" s="176"/>
+      <c r="AQ15" s="176"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="175"/>
+      <c r="AT15" s="176"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="177"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="163"/>
-      <c r="AN16" s="147"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="149"/>
-      <c r="AS16" s="147"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="149"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="173"/>
+      <c r="AL16" s="173"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="175"/>
+      <c r="AO16" s="176"/>
+      <c r="AP16" s="176"/>
+      <c r="AQ16" s="176"/>
+      <c r="AR16" s="177"/>
+      <c r="AS16" s="175"/>
+      <c r="AT16" s="176"/>
+      <c r="AU16" s="176"/>
+      <c r="AV16" s="176"/>
+      <c r="AW16" s="177"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="169"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="162"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="163"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="148"/>
-      <c r="AQ17" s="148"/>
-      <c r="AR17" s="149"/>
-      <c r="AS17" s="147"/>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="149"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="173"/>
+      <c r="AL17" s="173"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="175"/>
+      <c r="AO17" s="176"/>
+      <c r="AP17" s="176"/>
+      <c r="AQ17" s="176"/>
+      <c r="AR17" s="177"/>
+      <c r="AS17" s="175"/>
+      <c r="AT17" s="176"/>
+      <c r="AU17" s="176"/>
+      <c r="AV17" s="176"/>
+      <c r="AW17" s="177"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="162"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="163"/>
-      <c r="AN18" s="147"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="148"/>
-      <c r="AQ18" s="148"/>
-      <c r="AR18" s="149"/>
-      <c r="AS18" s="147"/>
-      <c r="AT18" s="148"/>
-      <c r="AU18" s="148"/>
-      <c r="AV18" s="148"/>
-      <c r="AW18" s="149"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="173"/>
+      <c r="AL18" s="173"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="175"/>
+      <c r="AO18" s="176"/>
+      <c r="AP18" s="176"/>
+      <c r="AQ18" s="176"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="175"/>
+      <c r="AT18" s="176"/>
+      <c r="AU18" s="176"/>
+      <c r="AV18" s="176"/>
+      <c r="AW18" s="177"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="162"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="163"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="160"/>
-      <c r="AP19" s="160"/>
-      <c r="AQ19" s="160"/>
-      <c r="AR19" s="160"/>
-      <c r="AS19" s="147"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="149"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="173"/>
+      <c r="AL19" s="173"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="175"/>
+      <c r="AT19" s="176"/>
+      <c r="AU19" s="176"/>
+      <c r="AV19" s="176"/>
+      <c r="AW19" s="177"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="163"/>
-      <c r="AN20" s="147"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="149"/>
-      <c r="AS20" s="147"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="149"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="173"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="175"/>
+      <c r="AO20" s="176"/>
+      <c r="AP20" s="176"/>
+      <c r="AQ20" s="176"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="175"/>
+      <c r="AT20" s="176"/>
+      <c r="AU20" s="176"/>
+      <c r="AV20" s="176"/>
+      <c r="AW20" s="177"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="162"/>
-      <c r="AJ21" s="162"/>
-      <c r="AK21" s="162"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="163"/>
-      <c r="AN21" s="147"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="149"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="149"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="173"/>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="175"/>
+      <c r="AO21" s="176"/>
+      <c r="AP21" s="176"/>
+      <c r="AQ21" s="176"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="175"/>
+      <c r="AT21" s="176"/>
+      <c r="AU21" s="176"/>
+      <c r="AV21" s="176"/>
+      <c r="AW21" s="177"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="162"/>
-      <c r="AJ22" s="162"/>
-      <c r="AK22" s="162"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="147"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="149"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="149"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="173"/>
+      <c r="AJ22" s="173"/>
+      <c r="AK22" s="173"/>
+      <c r="AL22" s="173"/>
+      <c r="AM22" s="174"/>
+      <c r="AN22" s="175"/>
+      <c r="AO22" s="176"/>
+      <c r="AP22" s="176"/>
+      <c r="AQ22" s="176"/>
+      <c r="AR22" s="177"/>
+      <c r="AS22" s="175"/>
+      <c r="AT22" s="176"/>
+      <c r="AU22" s="176"/>
+      <c r="AV22" s="176"/>
+      <c r="AW22" s="177"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="162"/>
-      <c r="AK23" s="162"/>
-      <c r="AL23" s="162"/>
-      <c r="AM23" s="163"/>
-      <c r="AN23" s="147"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="149"/>
-      <c r="AS23" s="147"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="149"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
+      <c r="AL23" s="173"/>
+      <c r="AM23" s="174"/>
+      <c r="AN23" s="175"/>
+      <c r="AO23" s="176"/>
+      <c r="AP23" s="176"/>
+      <c r="AQ23" s="176"/>
+      <c r="AR23" s="177"/>
+      <c r="AS23" s="175"/>
+      <c r="AT23" s="176"/>
+      <c r="AU23" s="176"/>
+      <c r="AV23" s="176"/>
+      <c r="AW23" s="177"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="161"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="162"/>
-      <c r="AJ24" s="162"/>
-      <c r="AK24" s="162"/>
-      <c r="AL24" s="162"/>
-      <c r="AM24" s="163"/>
-      <c r="AN24" s="147"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="149"/>
-      <c r="AS24" s="147"/>
-      <c r="AT24" s="148"/>
-      <c r="AU24" s="148"/>
-      <c r="AV24" s="148"/>
-      <c r="AW24" s="149"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
+      <c r="AL24" s="173"/>
+      <c r="AM24" s="174"/>
+      <c r="AN24" s="175"/>
+      <c r="AO24" s="176"/>
+      <c r="AP24" s="176"/>
+      <c r="AQ24" s="176"/>
+      <c r="AR24" s="177"/>
+      <c r="AS24" s="175"/>
+      <c r="AT24" s="176"/>
+      <c r="AU24" s="176"/>
+      <c r="AV24" s="176"/>
+      <c r="AW24" s="177"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="163"/>
-      <c r="AN25" s="147"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="149"/>
-      <c r="AS25" s="147"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="149"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
+      <c r="AL25" s="173"/>
+      <c r="AM25" s="174"/>
+      <c r="AN25" s="175"/>
+      <c r="AO25" s="176"/>
+      <c r="AP25" s="176"/>
+      <c r="AQ25" s="176"/>
+      <c r="AR25" s="177"/>
+      <c r="AS25" s="175"/>
+      <c r="AT25" s="176"/>
+      <c r="AU25" s="176"/>
+      <c r="AV25" s="176"/>
+      <c r="AW25" s="177"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="163"/>
-      <c r="AN26" s="147"/>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="148"/>
-      <c r="AQ26" s="148"/>
-      <c r="AR26" s="149"/>
-      <c r="AS26" s="147"/>
-      <c r="AT26" s="148"/>
-      <c r="AU26" s="148"/>
-      <c r="AV26" s="148"/>
-      <c r="AW26" s="149"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="173"/>
+      <c r="AJ26" s="173"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="173"/>
+      <c r="AM26" s="174"/>
+      <c r="AN26" s="175"/>
+      <c r="AO26" s="176"/>
+      <c r="AP26" s="176"/>
+      <c r="AQ26" s="176"/>
+      <c r="AR26" s="177"/>
+      <c r="AS26" s="175"/>
+      <c r="AT26" s="176"/>
+      <c r="AU26" s="176"/>
+      <c r="AV26" s="176"/>
+      <c r="AW26" s="177"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="161"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="163"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="149"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="148"/>
-      <c r="AU27" s="148"/>
-      <c r="AV27" s="148"/>
-      <c r="AW27" s="149"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="173"/>
+      <c r="AJ27" s="173"/>
+      <c r="AK27" s="173"/>
+      <c r="AL27" s="173"/>
+      <c r="AM27" s="174"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="176"/>
+      <c r="AP27" s="176"/>
+      <c r="AQ27" s="176"/>
+      <c r="AR27" s="177"/>
+      <c r="AS27" s="175"/>
+      <c r="AT27" s="176"/>
+      <c r="AU27" s="176"/>
+      <c r="AV27" s="176"/>
+      <c r="AW27" s="177"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="161"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="163"/>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="149"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="149"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
+      <c r="AJ28" s="173"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="173"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="175"/>
+      <c r="AO28" s="176"/>
+      <c r="AP28" s="176"/>
+      <c r="AQ28" s="176"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="175"/>
+      <c r="AT28" s="176"/>
+      <c r="AU28" s="176"/>
+      <c r="AV28" s="176"/>
+      <c r="AW28" s="177"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="160"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="163"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="148"/>
-      <c r="AP29" s="148"/>
-      <c r="AQ29" s="148"/>
-      <c r="AR29" s="149"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="148"/>
-      <c r="AU29" s="148"/>
-      <c r="AV29" s="148"/>
-      <c r="AW29" s="149"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="173"/>
+      <c r="AJ29" s="173"/>
+      <c r="AK29" s="173"/>
+      <c r="AL29" s="173"/>
+      <c r="AM29" s="174"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="176"/>
+      <c r="AP29" s="176"/>
+      <c r="AQ29" s="176"/>
+      <c r="AR29" s="177"/>
+      <c r="AS29" s="175"/>
+      <c r="AT29" s="176"/>
+      <c r="AU29" s="176"/>
+      <c r="AV29" s="176"/>
+      <c r="AW29" s="177"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="160"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="162"/>
-      <c r="AJ30" s="162"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="162"/>
-      <c r="AM30" s="163"/>
-      <c r="AN30" s="147"/>
-      <c r="AO30" s="148"/>
-      <c r="AP30" s="148"/>
-      <c r="AQ30" s="148"/>
-      <c r="AR30" s="149"/>
-      <c r="AS30" s="147"/>
-      <c r="AT30" s="148"/>
-      <c r="AU30" s="148"/>
-      <c r="AV30" s="148"/>
-      <c r="AW30" s="149"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="173"/>
+      <c r="AJ30" s="173"/>
+      <c r="AK30" s="173"/>
+      <c r="AL30" s="173"/>
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="176"/>
+      <c r="AP30" s="176"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177"/>
+      <c r="AS30" s="175"/>
+      <c r="AT30" s="176"/>
+      <c r="AU30" s="176"/>
+      <c r="AV30" s="176"/>
+      <c r="AW30" s="177"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="160"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="162"/>
-      <c r="AJ31" s="162"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="162"/>
-      <c r="AM31" s="163"/>
-      <c r="AN31" s="147"/>
-      <c r="AO31" s="148"/>
-      <c r="AP31" s="148"/>
-      <c r="AQ31" s="148"/>
-      <c r="AR31" s="149"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="148"/>
-      <c r="AU31" s="148"/>
-      <c r="AV31" s="148"/>
-      <c r="AW31" s="149"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="173"/>
+      <c r="AJ31" s="173"/>
+      <c r="AK31" s="173"/>
+      <c r="AL31" s="173"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="175"/>
+      <c r="AO31" s="176"/>
+      <c r="AP31" s="176"/>
+      <c r="AQ31" s="176"/>
+      <c r="AR31" s="177"/>
+      <c r="AS31" s="175"/>
+      <c r="AT31" s="176"/>
+      <c r="AU31" s="176"/>
+      <c r="AV31" s="176"/>
+      <c r="AW31" s="177"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="160"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="160"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="162"/>
-      <c r="AJ32" s="162"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="162"/>
-      <c r="AM32" s="163"/>
-      <c r="AN32" s="147"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="149"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="148"/>
-      <c r="AU32" s="148"/>
-      <c r="AV32" s="148"/>
-      <c r="AW32" s="149"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="173"/>
+      <c r="AJ32" s="173"/>
+      <c r="AK32" s="173"/>
+      <c r="AL32" s="173"/>
+      <c r="AM32" s="174"/>
+      <c r="AN32" s="175"/>
+      <c r="AO32" s="176"/>
+      <c r="AP32" s="176"/>
+      <c r="AQ32" s="176"/>
+      <c r="AR32" s="177"/>
+      <c r="AS32" s="175"/>
+      <c r="AT32" s="176"/>
+      <c r="AU32" s="176"/>
+      <c r="AV32" s="176"/>
+      <c r="AW32" s="177"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="160"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="162"/>
-      <c r="AJ33" s="162"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="147"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="149"/>
-      <c r="AS33" s="147"/>
-      <c r="AT33" s="148"/>
-      <c r="AU33" s="148"/>
-      <c r="AV33" s="148"/>
-      <c r="AW33" s="149"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
+      <c r="AI33" s="173"/>
+      <c r="AJ33" s="173"/>
+      <c r="AK33" s="173"/>
+      <c r="AL33" s="173"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="175"/>
+      <c r="AO33" s="176"/>
+      <c r="AP33" s="176"/>
+      <c r="AQ33" s="176"/>
+      <c r="AR33" s="177"/>
+      <c r="AS33" s="175"/>
+      <c r="AT33" s="176"/>
+      <c r="AU33" s="176"/>
+      <c r="AV33" s="176"/>
+      <c r="AW33" s="177"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="150"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="160"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="160"/>
-      <c r="V34" s="161"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-      <c r="AB34" s="162"/>
-      <c r="AC34" s="162"/>
-      <c r="AD34" s="162"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="162"/>
-      <c r="AG34" s="162"/>
-      <c r="AH34" s="162"/>
-      <c r="AI34" s="162"/>
-      <c r="AJ34" s="162"/>
-      <c r="AK34" s="162"/>
-      <c r="AL34" s="162"/>
-      <c r="AM34" s="163"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="148"/>
-      <c r="AR34" s="149"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="148"/>
-      <c r="AU34" s="148"/>
-      <c r="AV34" s="148"/>
-      <c r="AW34" s="149"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="185"/>
+      <c r="Q34" s="185"/>
+      <c r="R34" s="186"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="172"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
+      <c r="AI34" s="173"/>
+      <c r="AJ34" s="173"/>
+      <c r="AK34" s="173"/>
+      <c r="AL34" s="173"/>
+      <c r="AM34" s="174"/>
+      <c r="AN34" s="175"/>
+      <c r="AO34" s="176"/>
+      <c r="AP34" s="176"/>
+      <c r="AQ34" s="176"/>
+      <c r="AR34" s="177"/>
+      <c r="AS34" s="175"/>
+      <c r="AT34" s="176"/>
+      <c r="AU34" s="176"/>
+      <c r="AV34" s="176"/>
+      <c r="AW34" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7039,230 +7254,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7422,11 +7422,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="191"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="192"/>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="193"/>
+      <c r="AO2" s="193"/>
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="195"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -7435,14 +7435,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="195"/>
-      <c r="BC2" s="195"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="195"/>
-      <c r="BF2" s="195"/>
-      <c r="BG2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="197"/>
+      <c r="BB2" s="197"/>
+      <c r="BC2" s="197"/>
+      <c r="BD2" s="197"/>
+      <c r="BE2" s="197"/>
+      <c r="BF2" s="197"/>
+      <c r="BG2" s="198"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8971,10 +8971,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="201">
+      <c r="B42" s="187">
         <v>1</v>
       </c>
-      <c r="C42" s="202"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="69" t="s">
         <v>131</v>
       </c>
@@ -9006,16 +9006,16 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="74"/>
-      <c r="AE42" s="197" t="s">
+      <c r="AE42" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF42" s="198"/>
-      <c r="AG42" s="197"/>
-      <c r="AH42" s="198"/>
-      <c r="AI42" s="197"/>
-      <c r="AJ42" s="198"/>
-      <c r="AK42" s="197"/>
-      <c r="AL42" s="198"/>
+      <c r="AF42" s="192"/>
+      <c r="AG42" s="191"/>
+      <c r="AH42" s="192"/>
+      <c r="AI42" s="191"/>
+      <c r="AJ42" s="192"/>
+      <c r="AK42" s="191"/>
+      <c r="AL42" s="192"/>
       <c r="AM42" s="70" t="s">
         <v>134</v>
       </c>
@@ -9049,10 +9049,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="122"/>
-      <c r="B43" s="187">
+      <c r="B43" s="189">
         <v>2</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="190"/>
       <c r="D43" s="123" t="s">
         <v>131</v>
       </c>
@@ -9084,16 +9084,16 @@
       <c r="AB43" s="124"/>
       <c r="AC43" s="124"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="189" t="s">
+      <c r="AE43" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="AF43" s="190"/>
-      <c r="AG43" s="189"/>
-      <c r="AH43" s="190"/>
-      <c r="AI43" s="189"/>
-      <c r="AJ43" s="190"/>
-      <c r="AK43" s="189"/>
-      <c r="AL43" s="190"/>
+      <c r="AF43" s="202"/>
+      <c r="AG43" s="201"/>
+      <c r="AH43" s="202"/>
+      <c r="AI43" s="201"/>
+      <c r="AJ43" s="202"/>
+      <c r="AK43" s="201"/>
+      <c r="AL43" s="202"/>
       <c r="AM43" s="126" t="s">
         <v>277</v>
       </c>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
-      <c r="B44" s="201">
+      <c r="B44" s="187">
         <v>3</v>
       </c>
-      <c r="C44" s="202"/>
+      <c r="C44" s="188"/>
       <c r="D44" s="99" t="s">
         <v>131</v>
       </c>
@@ -9154,16 +9154,16 @@
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="100"/>
-      <c r="AE44" s="197" t="s">
+      <c r="AE44" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF44" s="198"/>
-      <c r="AG44" s="197"/>
-      <c r="AH44" s="198"/>
-      <c r="AI44" s="197"/>
-      <c r="AJ44" s="198"/>
-      <c r="AK44" s="197"/>
-      <c r="AL44" s="198"/>
+      <c r="AF44" s="192"/>
+      <c r="AG44" s="191"/>
+      <c r="AH44" s="192"/>
+      <c r="AI44" s="191"/>
+      <c r="AJ44" s="192"/>
+      <c r="AK44" s="191"/>
+      <c r="AL44" s="192"/>
       <c r="AM44" s="70" t="s">
         <v>140</v>
       </c>
@@ -9197,10 +9197,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="187">
+      <c r="B45" s="189">
         <v>4</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="190"/>
       <c r="D45" s="103" t="s">
         <v>141</v>
       </c>
@@ -9232,16 +9232,16 @@
       <c r="AB45" s="73"/>
       <c r="AC45" s="73"/>
       <c r="AD45" s="104"/>
-      <c r="AE45" s="197"/>
-      <c r="AF45" s="198"/>
-      <c r="AG45" s="197"/>
-      <c r="AH45" s="198"/>
-      <c r="AI45" s="197" t="s">
+      <c r="AE45" s="191"/>
+      <c r="AF45" s="192"/>
+      <c r="AG45" s="191"/>
+      <c r="AH45" s="192"/>
+      <c r="AI45" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="198"/>
-      <c r="AK45" s="197"/>
-      <c r="AL45" s="198"/>
+      <c r="AJ45" s="192"/>
+      <c r="AK45" s="191"/>
+      <c r="AL45" s="192"/>
       <c r="AM45" s="70" t="s">
         <v>144</v>
       </c>
@@ -9275,10 +9275,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="201">
+      <c r="B46" s="187">
         <v>5</v>
       </c>
-      <c r="C46" s="202"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="99" t="s">
         <v>141</v>
       </c>
@@ -9310,16 +9310,16 @@
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="100"/>
-      <c r="AE46" s="197" t="s">
+      <c r="AE46" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AF46" s="198"/>
-      <c r="AG46" s="197"/>
-      <c r="AH46" s="198"/>
-      <c r="AI46" s="197"/>
-      <c r="AJ46" s="198"/>
-      <c r="AK46" s="197"/>
-      <c r="AL46" s="198"/>
+      <c r="AF46" s="192"/>
+      <c r="AG46" s="191"/>
+      <c r="AH46" s="192"/>
+      <c r="AI46" s="191"/>
+      <c r="AJ46" s="192"/>
+      <c r="AK46" s="191"/>
+      <c r="AL46" s="192"/>
       <c r="AM46" s="70" t="s">
         <v>145</v>
       </c>
@@ -9353,10 +9353,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="187">
+      <c r="B47" s="189">
         <v>6</v>
       </c>
-      <c r="C47" s="188"/>
+      <c r="C47" s="190"/>
       <c r="D47" s="99" t="s">
         <v>141</v>
       </c>
@@ -9388,16 +9388,16 @@
       <c r="AB47" s="73"/>
       <c r="AC47" s="73"/>
       <c r="AD47" s="100"/>
-      <c r="AE47" s="197"/>
-      <c r="AF47" s="198"/>
-      <c r="AG47" s="197" t="s">
+      <c r="AE47" s="191"/>
+      <c r="AF47" s="192"/>
+      <c r="AG47" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="AH47" s="198"/>
-      <c r="AI47" s="197"/>
-      <c r="AJ47" s="198"/>
-      <c r="AK47" s="197"/>
-      <c r="AL47" s="198"/>
+      <c r="AH47" s="192"/>
+      <c r="AI47" s="191"/>
+      <c r="AJ47" s="192"/>
+      <c r="AK47" s="191"/>
+      <c r="AL47" s="192"/>
       <c r="AM47" s="70" t="s">
         <v>135</v>
       </c>
@@ -9436,26 +9436,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK42:AL42"/>
@@ -9464,11 +9449,26 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9614,7 +9614,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="194" t="str">
+      <c r="CU1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="194"/>
+      <c r="CU2" s="196"/>
       <c r="CV2" s="203"/>
       <c r="CW2" s="203"/>
       <c r="CX2" s="203"/>
@@ -9961,22 +9961,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="212" t="s">
@@ -9985,13 +9985,13 @@
       <c r="J6" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="180" t="s">
+      <c r="K6" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="180" t="s">
+      <c r="M6" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -10006,17 +10006,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="212"/>
       <c r="J7" s="212"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
       <c r="N7" s="41" t="s">
         <v>62</v>
       </c>
@@ -10235,22 +10235,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="180" t="s">
+      <c r="F14" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="180" t="s">
+      <c r="G14" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="180" t="s">
+      <c r="H14" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="213" t="s">
@@ -10259,13 +10259,13 @@
       <c r="J14" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="180" t="s">
+      <c r="K14" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="180" t="s">
+      <c r="L14" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="180" t="s">
+      <c r="M14" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="58" t="s">
@@ -10280,17 +10280,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="214"/>
       <c r="J15" s="212"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
       <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
@@ -10477,22 +10477,22 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="180" t="s">
+      <c r="G21" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="180" t="s">
+      <c r="H21" s="149" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="212" t="s">
@@ -10501,13 +10501,13 @@
       <c r="J21" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="180" t="s">
+      <c r="K21" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="180" t="s">
+      <c r="L21" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="180" t="s">
+      <c r="M21" s="149" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="58" t="s">
@@ -10522,17 +10522,17 @@
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
       <c r="I22" s="212"/>
       <c r="J22" s="212"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="80" t="s">
         <v>62</v>
       </c>
@@ -10840,6 +10840,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -10852,30 +10876,6 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10949,7 +10949,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -10965,7 +10965,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11036,7 +11036,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -14548,7 +14548,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -14635,7 +14635,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="17" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="22"/>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="19" spans="1:52" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="22"/>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="21" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="215">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="22"/>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="23" spans="1:52" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="215">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>69</v>
@@ -19745,6 +19745,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="T19:AC20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="T17:AC18"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -19755,13 +19762,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="T19:AC20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="T17:AC18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -19835,7 +19835,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="191">
+      <c r="AI1" s="193">
         <f>変更履歴!E5</f>
         <v>43714</v>
       </c>
@@ -19851,7 +19851,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="194" t="str">
+      <c r="AT1" s="196" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -19922,7 +19922,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="194"/>
+      <c r="AT2" s="196"/>
       <c r="AU2" s="203"/>
       <c r="AV2" s="203"/>
       <c r="AW2" s="203"/>
@@ -31087,6 +31087,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -31244,12 +31250,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -31259,6 +31259,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31274,13 +31283,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>